--- a/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_26.xlsx
+++ b/Outputs/3. Prosumer percentage/Grid Search/Output Files/100/Output_20_26.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>405402.9054158022</v>
+        <v>401265.422280888</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>33940801.53424101</v>
+        <v>33940801.534241</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>6660456.462021568</v>
+        <v>6660456.462021565</v>
       </c>
     </row>
     <row r="9">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>4858985.822397105</v>
+        <v>4858985.822397104</v>
       </c>
     </row>
     <row r="11">
@@ -658,19 +658,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C2" t="n">
-        <v>23.32779925082561</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="E2" t="n">
-        <v>23.32779925082561</v>
+        <v>6.887311264409524</v>
       </c>
       <c r="F2" t="n">
-        <v>20.54712558012719</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -724,7 +724,7 @@
         <v>0</v>
       </c>
       <c r="X2" t="n">
-        <v>0</v>
+        <v>14.9510387864824</v>
       </c>
       <c r="Y2" t="n">
         <v>0</v>
@@ -743,19 +743,19 @@
         <v>0</v>
       </c>
       <c r="D3" t="n">
-        <v>20.54712558012719</v>
+        <v>0</v>
       </c>
       <c r="E3" t="n">
         <v>0</v>
       </c>
       <c r="F3" t="n">
-        <v>23.32779925082561</v>
+        <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>23.32779925082561</v>
+        <v>0</v>
       </c>
       <c r="H3" t="n">
-        <v>23.32779925082561</v>
+        <v>0</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -797,16 +797,16 @@
         <v>0</v>
       </c>
       <c r="V3" t="n">
-        <v>0</v>
+        <v>20.54712558012615</v>
       </c>
       <c r="W3" t="n">
-        <v>0</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="X3" t="n">
-        <v>0</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="Y3" t="n">
-        <v>0</v>
+        <v>23.32779925082444</v>
       </c>
     </row>
     <row r="4">
@@ -828,16 +828,16 @@
         <v>0</v>
       </c>
       <c r="F4" t="n">
-        <v>0.8458783860907291</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="G4" t="n">
-        <v>23.32779925082561</v>
+        <v>0.8458783860896106</v>
       </c>
       <c r="H4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="I4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -864,7 +864,7 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>19.70124719403647</v>
+        <v>19.70124719403655</v>
       </c>
       <c r="S4" t="n">
         <v>0</v>
@@ -895,7 +895,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>22.03657478005872</v>
+        <v>22.03657478005869</v>
       </c>
       <c r="C5" t="n">
         <v>33.76104808841092</v>
@@ -958,7 +958,7 @@
         <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>0.8069000430770075</v>
+        <v>0.8069000430770259</v>
       </c>
       <c r="X5" t="n">
         <v>14.9510387864824</v>
@@ -974,7 +974,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>37.06736141641883</v>
+        <v>0</v>
       </c>
       <c r="C6" t="n">
         <v>0</v>
@@ -986,10 +986,10 @@
         <v>0</v>
       </c>
       <c r="F6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="H6" t="n">
         <v>40.6378963153706</v>
@@ -1031,7 +1031,7 @@
         <v>0</v>
       </c>
       <c r="U6" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="V6" t="n">
         <v>0</v>
@@ -1040,10 +1040,10 @@
         <v>0</v>
       </c>
       <c r="X6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y6" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="7">
@@ -1056,13 +1056,13 @@
         <v>41.31500304752735</v>
       </c>
       <c r="C7" t="n">
+        <v>0</v>
+      </c>
+      <c r="D7" t="n">
         <v>41.31500304752735</v>
       </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
       <c r="E7" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="F7" t="n">
         <v>0</v>
@@ -1074,7 +1074,7 @@
         <v>0</v>
       </c>
       <c r="I7" t="n">
-        <v>0</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -1101,10 +1101,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S7" t="n">
-        <v>36.39025468426208</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
         <v>0</v>
@@ -1119,7 +1119,7 @@
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>41.31500304752735</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
         <v>0</v>
@@ -1217,13 +1217,13 @@
         <v>0</v>
       </c>
       <c r="D9" t="n">
-        <v>37.06736141641878</v>
+        <v>0</v>
       </c>
       <c r="E9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="F9" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="G9" t="n">
         <v>0</v>
@@ -1274,13 +1274,13 @@
         <v>0</v>
       </c>
       <c r="W9" t="n">
-        <v>0</v>
+        <v>37.06736141641883</v>
       </c>
       <c r="X9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="Y9" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
     </row>
     <row r="10">
@@ -1290,16 +1290,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="C10" t="n">
-        <v>41.31500304752733</v>
+        <v>17.8422975499833</v>
       </c>
       <c r="D10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E10" t="n">
-        <v>36.39025468426205</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
         <v>0</v>
@@ -1308,7 +1308,7 @@
         <v>0</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="I10" t="n">
         <v>0</v>
@@ -1338,10 +1338,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>18.54795713427877</v>
       </c>
       <c r="S10" t="n">
-        <v>41.31500304752733</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
         <v>0</v>
@@ -1369,7 +1369,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C11" t="n">
         <v>0</v>
@@ -1378,13 +1378,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E11" t="n">
-        <v>429.4369973932878</v>
+        <v>119.7486210220056</v>
       </c>
       <c r="F11" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -1420,25 +1420,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T11" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U11" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>414.9510387864824</v>
       </c>
       <c r="Y11" t="n">
-        <v>189.6554371447624</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -1527,13 +1527,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C13" t="n">
         <v>170.8360944016073</v>
       </c>
       <c r="D13" t="n">
-        <v>15.29216224912152</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>168.0604237117701</v>
@@ -1542,10 +1542,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G13" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H13" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I13" t="n">
         <v>62.46433369811443</v>
@@ -1578,13 +1578,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T13" t="n">
-        <v>239.8247518556274</v>
+        <v>226.7103776501</v>
       </c>
       <c r="U13" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V13" t="n">
         <v>284.0859530482738</v>
@@ -1606,7 +1606,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C14" t="n">
         <v>0</v>
@@ -1615,16 +1615,16 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E14" t="n">
-        <v>0</v>
+        <v>140.628259223126</v>
       </c>
       <c r="F14" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G14" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -1657,22 +1657,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T14" t="n">
         <v>209.6535390155789</v>
       </c>
       <c r="U14" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V14" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W14" t="n">
-        <v>154.7133243489851</v>
+        <v>0</v>
       </c>
       <c r="X14" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y14" t="n">
         <v>0</v>
@@ -1764,7 +1764,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>76.21842335766277</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C16" t="n">
         <v>170.8360944016073</v>
@@ -1779,13 +1779,13 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G16" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I16" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1815,13 +1815,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T16" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777213</v>
       </c>
       <c r="U16" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V16" t="n">
         <v>284.0859530482738</v>
@@ -1833,7 +1833,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y16" t="n">
-        <v>0</v>
+        <v>225.1454739790328</v>
       </c>
     </row>
     <row r="17">
@@ -1846,22 +1846,22 @@
         <v>0</v>
       </c>
       <c r="C17" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D17" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E17" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F17" t="n">
-        <v>48.50583343253361</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G17" t="n">
-        <v>395.5076644073176</v>
+        <v>315.1723433222103</v>
       </c>
       <c r="H17" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -1900,19 +1900,19 @@
         <v>0</v>
       </c>
       <c r="U17" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V17" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W17" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X17" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y17" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -2004,10 +2004,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C19" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>49.34995949258659</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E19" t="n">
         <v>168.0604237117701</v>
@@ -2019,10 +2019,10 @@
         <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I19" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -2070,7 +2070,7 @@
         <v>242.9378371199217</v>
       </c>
       <c r="Y19" t="n">
-        <v>225.1454739790328</v>
+        <v>87.62736129014263</v>
       </c>
     </row>
     <row r="20">
@@ -2092,7 +2092,7 @@
         <v>429.4369973932878</v>
       </c>
       <c r="F20" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
         <v>0</v>
@@ -2137,19 +2137,19 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V20" t="n">
-        <v>275.1106372348596</v>
+        <v>0</v>
       </c>
       <c r="W20" t="n">
-        <v>0</v>
+        <v>136.0250758436196</v>
       </c>
       <c r="X20" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y20" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="21">
@@ -2244,19 +2244,19 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D22" t="n">
-        <v>49.34995949258659</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>168.0604237117701</v>
       </c>
       <c r="F22" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
         <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>81.30766987964064</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2289,7 +2289,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T22" t="n">
         <v>239.8247518556274</v>
@@ -2317,25 +2317,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C23" t="n">
         <v>433.7610480884109</v>
       </c>
       <c r="D23" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E23" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F23" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G23" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H23" t="n">
-        <v>267.0243359415286</v>
+        <v>109.5540470185019</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -2368,7 +2368,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T23" t="n">
         <v>0</v>
@@ -2383,10 +2383,10 @@
         <v>0</v>
       </c>
       <c r="X23" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y23" t="n">
-        <v>355.1569731211707</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24">
@@ -2481,7 +2481,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E25" t="n">
         <v>168.0604237117701</v>
@@ -2526,10 +2526,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>49.34995949258636</v>
+        <v>0</v>
       </c>
       <c r="T25" t="n">
-        <v>239.8247518556274</v>
+        <v>124.9554984777218</v>
       </c>
       <c r="U25" t="n">
         <v>275.6027656317444</v>
@@ -2554,25 +2554,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D26" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E26" t="n">
         <v>0</v>
       </c>
       <c r="F26" t="n">
-        <v>423.5887552948843</v>
+        <v>193.5017606441467</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H26" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -2608,22 +2608,22 @@
         <v>0</v>
       </c>
       <c r="T26" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U26" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V26" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W26" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X26" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y26" t="n">
-        <v>13.13578160607903</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27">
@@ -2712,13 +2712,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>0</v>
+        <v>189.9004325317972</v>
       </c>
       <c r="C28" t="n">
-        <v>92.85656489488127</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D28" t="n">
-        <v>164.2192128704925</v>
+        <v>49.34995949258659</v>
       </c>
       <c r="E28" t="n">
         <v>168.0604237117701</v>
@@ -2727,10 +2727,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G28" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I28" t="n">
         <v>0</v>
@@ -2763,7 +2763,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T28" t="n">
         <v>239.8247518556274</v>
@@ -2772,7 +2772,7 @@
         <v>275.6027656317444</v>
       </c>
       <c r="V28" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W28" t="n">
         <v>269.3061403695714</v>
@@ -2791,7 +2791,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>127.3873593352174</v>
+        <v>0</v>
       </c>
       <c r="C29" t="n">
         <v>433.7610480884109</v>
@@ -2800,13 +2800,13 @@
         <v>431.5506869772999</v>
       </c>
       <c r="E29" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F29" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G29" t="n">
-        <v>0</v>
+        <v>209.8676550916609</v>
       </c>
       <c r="H29" t="n">
         <v>0</v>
@@ -2851,16 +2851,16 @@
         <v>0</v>
       </c>
       <c r="V29" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W29" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X29" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y29" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30">
@@ -2958,16 +2958,16 @@
         <v>164.2192128704925</v>
       </c>
       <c r="E31" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F31" t="n">
-        <v>174.9399834978613</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H31" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
         <v>62.46433369811443</v>
@@ -3000,19 +3000,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>142.9822731108078</v>
+        <v>2.573051550003911</v>
       </c>
       <c r="T31" t="n">
-        <v>0</v>
+        <v>239.8247518556274</v>
       </c>
       <c r="U31" t="n">
         <v>275.6027656317444</v>
       </c>
       <c r="V31" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W31" t="n">
-        <v>178.7865964885608</v>
+        <v>269.3061403695714</v>
       </c>
       <c r="X31" t="n">
         <v>242.9378371199217</v>
@@ -3034,7 +3034,7 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D32" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E32" t="n">
         <v>429.4369973932878</v>
@@ -3043,7 +3043,7 @@
         <v>423.5887552948843</v>
       </c>
       <c r="G32" t="n">
-        <v>395.5076644073176</v>
+        <v>8.086301293330717</v>
       </c>
       <c r="H32" t="n">
         <v>267.0243359415286</v>
@@ -3085,7 +3085,7 @@
         <v>0</v>
       </c>
       <c r="U32" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V32" t="n">
         <v>0</v>
@@ -3097,7 +3097,7 @@
         <v>0</v>
       </c>
       <c r="Y32" t="n">
-        <v>300.6093084270142</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33">
@@ -3189,10 +3189,10 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C34" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E34" t="n">
         <v>168.0604237117701</v>
@@ -3201,7 +3201,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G34" t="n">
-        <v>49.34995949258661</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H34" t="n">
         <v>0</v>
@@ -3240,7 +3240,7 @@
         <v>0</v>
       </c>
       <c r="T34" t="n">
-        <v>239.8247518556274</v>
+        <v>132.697824295722</v>
       </c>
       <c r="U34" t="n">
         <v>275.6027656317444</v>
@@ -3268,22 +3268,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C35" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D35" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E35" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F35" t="n">
-        <v>423.5887552948843</v>
+        <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H35" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -3319,22 +3319,22 @@
         <v>0</v>
       </c>
       <c r="T35" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U35" t="n">
         <v>0</v>
       </c>
       <c r="V35" t="n">
-        <v>0</v>
+        <v>176.6134002454848</v>
       </c>
       <c r="W35" t="n">
         <v>0</v>
       </c>
       <c r="X35" t="n">
-        <v>149.6157531058527</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y35" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="36">
@@ -3426,7 +3426,7 @@
         <v>189.9004325317972</v>
       </c>
       <c r="C37" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D37" t="n">
         <v>164.2192128704925</v>
@@ -3474,16 +3474,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T37" t="n">
-        <v>239.8247518556274</v>
+        <v>132.6978242957215</v>
       </c>
       <c r="U37" t="n">
-        <v>138.7434236076983</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V37" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W37" t="n">
         <v>269.3061403695714</v>
@@ -3505,19 +3505,19 @@
         <v>0</v>
       </c>
       <c r="C38" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D38" t="n">
         <v>431.5506869772999</v>
       </c>
       <c r="E38" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F38" t="n">
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H38" t="n">
         <v>267.0243359415286</v>
@@ -3559,16 +3559,16 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U38" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V38" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W38" t="n">
-        <v>292.4677344004123</v>
+        <v>101.8038470309479</v>
       </c>
       <c r="X38" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y38" t="n">
         <v>0</v>
@@ -3675,7 +3675,7 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G40" t="n">
-        <v>163.0937685836068</v>
+        <v>64.09103728606583</v>
       </c>
       <c r="H40" t="n">
         <v>131.0206200144773</v>
@@ -3711,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>52.46272922979707</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
       </c>
       <c r="U40" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V40" t="n">
-        <v>0</v>
+        <v>284.0859530482738</v>
       </c>
       <c r="W40" t="n">
         <v>269.3061403695714</v>
@@ -3739,25 +3739,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>116.6395830120784</v>
+        <v>0</v>
       </c>
       <c r="C41" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D41" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E41" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F41" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G41" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H41" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -3793,19 +3793,19 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T41" t="n">
-        <v>0</v>
+        <v>209.6535390155789</v>
       </c>
       <c r="U41" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V41" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W41" t="n">
-        <v>0</v>
+        <v>338.6830497639212</v>
       </c>
       <c r="X41" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y41" t="n">
         <v>0</v>
@@ -3903,7 +3903,7 @@
         <v>170.8360944016073</v>
       </c>
       <c r="D43" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
         <v>168.0604237117701</v>
@@ -3912,10 +3912,10 @@
         <v>174.9399834978613</v>
       </c>
       <c r="G43" t="n">
-        <v>0</v>
+        <v>50.94983199904635</v>
       </c>
       <c r="H43" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I43" t="n">
         <v>0</v>
@@ -3948,13 +3948,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T43" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U43" t="n">
-        <v>160.7335122538386</v>
+        <v>0</v>
       </c>
       <c r="V43" t="n">
         <v>284.0859530482738</v>
@@ -3982,10 +3982,10 @@
         <v>433.7610480884109</v>
       </c>
       <c r="D44" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E44" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F44" t="n">
         <v>423.5887552948843</v>
@@ -4027,10 +4027,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T44" t="n">
-        <v>109.5540470185018</v>
+        <v>194.8454986468814</v>
       </c>
       <c r="U44" t="n">
         <v>0</v>
@@ -4039,10 +4039,10 @@
         <v>0</v>
       </c>
       <c r="W44" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X44" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y44" t="n">
         <v>0</v>
@@ -4134,25 +4134,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>189.9004325317972</v>
+        <v>176.7860583262695</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D46" t="n">
         <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F46" t="n">
-        <v>63.62546569681959</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G46" t="n">
-        <v>163.0937685836068</v>
+        <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
         <v>62.46433369811443</v>
@@ -4185,7 +4185,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T46" t="n">
         <v>239.8247518556274</v>
@@ -4306,76 +4306,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>93.31119700330245</v>
+        <v>55.9499711785088</v>
       </c>
       <c r="C2" t="n">
-        <v>69.74776341660991</v>
+        <v>55.9499711785088</v>
       </c>
       <c r="D2" t="n">
-        <v>46.18432982991737</v>
+        <v>32.38653759181744</v>
       </c>
       <c r="E2" t="n">
-        <v>22.62089624322483</v>
+        <v>25.42965752675732</v>
       </c>
       <c r="F2" t="n">
-        <v>1.866223940066049</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="G2" t="n">
-        <v>1.866223940066049</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="H2" t="n">
-        <v>1.866223940066049</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="I2" t="n">
-        <v>4.300780394746204</v>
+        <v>4.300780394745962</v>
       </c>
       <c r="J2" t="n">
-        <v>10.55978981922434</v>
+        <v>10.55978981922379</v>
       </c>
       <c r="K2" t="n">
-        <v>19.94042246570173</v>
+        <v>19.94042246570071</v>
       </c>
       <c r="L2" t="n">
-        <v>31.57792675593673</v>
+        <v>31.57792675593514</v>
       </c>
       <c r="M2" t="n">
-        <v>44.52689258584169</v>
+        <v>44.52689258583946</v>
       </c>
       <c r="N2" t="n">
-        <v>57.68538622060151</v>
+        <v>57.68538622059861</v>
       </c>
       <c r="O2" t="n">
-        <v>70.11057862895557</v>
+        <v>70.11057862895204</v>
       </c>
       <c r="P2" t="n">
-        <v>80.71519288249964</v>
+        <v>80.7151928824956</v>
       </c>
       <c r="Q2" t="n">
-        <v>88.67881654691429</v>
+        <v>88.67881654690986</v>
       </c>
       <c r="R2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="S2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="T2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="U2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="V2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="W2" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="X2" t="n">
-        <v>93.31119700330245</v>
+        <v>78.20913762301252</v>
       </c>
       <c r="Y2" t="n">
-        <v>93.31119700330245</v>
+        <v>78.20913762301252</v>
       </c>
     </row>
     <row r="3">
@@ -4385,76 +4385,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>93.31119700330245</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="C3" t="n">
-        <v>93.31119700330245</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="D3" t="n">
-        <v>72.55652470014367</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="E3" t="n">
-        <v>72.55652470014367</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="F3" t="n">
-        <v>48.99309111345113</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="G3" t="n">
-        <v>25.42965752675859</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="H3" t="n">
-        <v>1.866223940066049</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="I3" t="n">
-        <v>3.224722227401334</v>
+        <v>3.224722227401173</v>
       </c>
       <c r="J3" t="n">
-        <v>6.952545362113356</v>
+        <v>6.952545362113009</v>
       </c>
       <c r="K3" t="n">
-        <v>13.32398885826917</v>
+        <v>13.32398885826851</v>
       </c>
       <c r="L3" t="n">
-        <v>36.41851011658653</v>
+        <v>21.89118092381372</v>
       </c>
       <c r="M3" t="n">
-        <v>46.41601916873422</v>
+        <v>31.88868997596092</v>
       </c>
       <c r="N3" t="n">
-        <v>56.67813253697562</v>
+        <v>42.1508033442018</v>
       </c>
       <c r="O3" t="n">
-        <v>66.06596140233579</v>
+        <v>51.53863220956149</v>
       </c>
       <c r="P3" t="n">
-        <v>85.8247465688917</v>
+        <v>59.07319251962527</v>
       </c>
       <c r="Q3" t="n">
-        <v>90.8614006013256</v>
+        <v>70.21667574498159</v>
       </c>
       <c r="R3" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="S3" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="T3" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="U3" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="V3" t="n">
-        <v>93.31119700330245</v>
+        <v>72.55652470014005</v>
       </c>
       <c r="W3" t="n">
-        <v>93.31119700330245</v>
+        <v>48.99309111344868</v>
       </c>
       <c r="X3" t="n">
-        <v>93.31119700330245</v>
+        <v>25.42965752675732</v>
       </c>
       <c r="Y3" t="n">
-        <v>93.31119700330245</v>
+        <v>1.866223940065955</v>
       </c>
     </row>
     <row r="4">
@@ -4464,76 +4464,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="C4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="D4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="E4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="F4" t="n">
-        <v>72.55652470014367</v>
+        <v>49.84751372566041</v>
       </c>
       <c r="G4" t="n">
-        <v>48.99309111345113</v>
+        <v>48.99309111344868</v>
       </c>
       <c r="H4" t="n">
-        <v>25.42965752675859</v>
+        <v>25.42965752675732</v>
       </c>
       <c r="I4" t="n">
-        <v>1.866223940066049</v>
+        <v>1.866223940065955</v>
       </c>
       <c r="J4" t="n">
-        <v>24.96074519838341</v>
+        <v>24.96074519838215</v>
       </c>
       <c r="K4" t="n">
-        <v>28.80397472722827</v>
+        <v>46.37481944561825</v>
       </c>
       <c r="L4" t="n">
-        <v>33.72198534653413</v>
+        <v>51.29283006492387</v>
       </c>
       <c r="M4" t="n">
-        <v>38.90733798862114</v>
+        <v>56.47818270701062</v>
       </c>
       <c r="N4" t="n">
-        <v>43.96939453471235</v>
+        <v>61.54023925310157</v>
       </c>
       <c r="O4" t="n">
-        <v>48.64502307262158</v>
+        <v>66.21586779101057</v>
       </c>
       <c r="P4" t="n">
-        <v>70.21667574498508</v>
+        <v>70.21667574498159</v>
       </c>
       <c r="Q4" t="n">
-        <v>93.31119700330245</v>
+        <v>93.31119700329778</v>
       </c>
       <c r="R4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="S4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="T4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="U4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="V4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="W4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="X4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
       <c r="Y4" t="n">
-        <v>73.41094731235653</v>
+        <v>73.41094731235177</v>
       </c>
     </row>
     <row r="5">
@@ -4564,22 +4564,22 @@
         <v>3.305200243802188</v>
       </c>
       <c r="I5" t="n">
-        <v>7.922179662952741</v>
+        <v>7.922179662952726</v>
       </c>
       <c r="J5" t="n">
-        <v>18.98581709030271</v>
+        <v>18.98581709030269</v>
       </c>
       <c r="K5" t="n">
-        <v>35.56734164176024</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L5" t="n">
-        <v>56.13818908654182</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M5" t="n">
-        <v>79.02722044682888</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N5" t="n">
-        <v>102.286620264271</v>
+        <v>102.2866202642709</v>
       </c>
       <c r="O5" t="n">
         <v>124.2498119529546</v>
@@ -4606,7 +4606,7 @@
         <v>165.2600121901094</v>
       </c>
       <c r="W5" t="n">
-        <v>164.4449616415468</v>
+        <v>164.4449616415467</v>
       </c>
       <c r="X5" t="n">
         <v>149.3429022612615</v>
@@ -4622,19 +4622,19 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>127.8182329816055</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="C6" t="n">
-        <v>127.8182329816055</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="D6" t="n">
-        <v>127.8182329816055</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="E6" t="n">
-        <v>127.8182329816055</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="F6" t="n">
-        <v>86.08590667097184</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="G6" t="n">
         <v>44.35358036033816</v>
@@ -4664,10 +4664,10 @@
         <v>91.1078344893717</v>
       </c>
       <c r="P6" t="n">
-        <v>104.4261789416173</v>
+        <v>120.027815931154</v>
       </c>
       <c r="Q6" t="n">
-        <v>124.3581591730573</v>
+        <v>160.929668948206</v>
       </c>
       <c r="R6" t="n">
         <v>165.2600121901094</v>
@@ -4679,19 +4679,19 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U6" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="V6" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="W6" t="n">
-        <v>165.2600121901094</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="X6" t="n">
-        <v>165.2600121901094</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="Y6" t="n">
-        <v>165.2600121901094</v>
+        <v>44.35358036033816</v>
       </c>
     </row>
     <row r="7">
@@ -4701,76 +4701,76 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>45.03752655443588</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C7" t="n">
-        <v>3.305200243802188</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="D7" t="n">
-        <v>3.305200243802188</v>
+        <v>63.06004933219679</v>
       </c>
       <c r="E7" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="F7" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="G7" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="H7" t="n">
-        <v>3.305200243802188</v>
+        <v>21.3277230215631</v>
       </c>
       <c r="I7" t="n">
         <v>3.305200243802188</v>
       </c>
       <c r="J7" t="n">
-        <v>7.439194768028656</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K7" t="n">
-        <v>14.23261768427069</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L7" t="n">
-        <v>22.9258601234117</v>
+        <v>126.0107592949584</v>
       </c>
       <c r="M7" t="n">
-        <v>32.09166539295484</v>
+        <v>136.0791245210935</v>
       </c>
       <c r="N7" t="n">
-        <v>72.99351841000691</v>
+        <v>145.026987427909</v>
       </c>
       <c r="O7" t="n">
-        <v>113.895371427059</v>
+        <v>153.2917870759318</v>
       </c>
       <c r="P7" t="n">
-        <v>154.7972244441111</v>
+        <v>160.3637509630746</v>
       </c>
       <c r="Q7" t="n">
         <v>165.2600121901094</v>
       </c>
       <c r="R7" t="n">
-        <v>165.2600121901094</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W7" t="n">
-        <v>128.5021791757032</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X7" t="n">
-        <v>86.76985286506957</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y7" t="n">
-        <v>86.76985286506957</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="8">
@@ -4783,22 +4783,22 @@
         <v>122.8380161568152</v>
       </c>
       <c r="C8" t="n">
-        <v>88.73594738064259</v>
+        <v>88.7359473806426</v>
       </c>
       <c r="D8" t="n">
         <v>56.86656659549116</v>
       </c>
       <c r="E8" t="n">
-        <v>27.1322257941904</v>
+        <v>27.13222579419039</v>
       </c>
       <c r="F8" t="n">
-        <v>3.30520024380219</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="G8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="H8" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I8" t="n">
         <v>7.922179662952697</v>
@@ -4807,19 +4807,19 @@
         <v>18.98581709030266</v>
       </c>
       <c r="K8" t="n">
-        <v>35.56734164176019</v>
+        <v>35.56734164176022</v>
       </c>
       <c r="L8" t="n">
-        <v>56.13818908654178</v>
+        <v>56.13818908654181</v>
       </c>
       <c r="M8" t="n">
-        <v>79.02722044682884</v>
+        <v>79.02722044682886</v>
       </c>
       <c r="N8" t="n">
         <v>102.2866202642709</v>
       </c>
       <c r="O8" t="n">
-        <v>124.2498119529545</v>
+        <v>124.2498119529546</v>
       </c>
       <c r="P8" t="n">
         <v>142.9948879228476</v>
@@ -4837,10 +4837,10 @@
         <v>165.2600121901094</v>
       </c>
       <c r="U8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V8" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W8" t="n">
         <v>164.4449616415467</v>
@@ -4849,7 +4849,7 @@
         <v>149.3429022612615</v>
       </c>
       <c r="Y8" t="n">
-        <v>145.0971826013189</v>
+        <v>145.097182601319</v>
       </c>
     </row>
     <row r="9">
@@ -4859,16 +4859,16 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>165.2600121901093</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="C9" t="n">
-        <v>165.2600121901093</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="D9" t="n">
-        <v>127.8182329816055</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="E9" t="n">
-        <v>86.08590667097184</v>
+        <v>44.35358036033816</v>
       </c>
       <c r="F9" t="n">
         <v>44.35358036033816</v>
@@ -4877,58 +4877,58 @@
         <v>44.35358036033816</v>
       </c>
       <c r="H9" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I9" t="n">
-        <v>31.77020107089877</v>
+        <v>5.706527910441171</v>
       </c>
       <c r="J9" t="n">
-        <v>38.35962772912429</v>
+        <v>12.29595456866669</v>
       </c>
       <c r="K9" t="n">
-        <v>49.62200743646791</v>
+        <v>23.55833427601031</v>
       </c>
       <c r="L9" t="n">
-        <v>64.76566681697273</v>
+        <v>38.70199365651513</v>
       </c>
       <c r="M9" t="n">
-        <v>82.43760303375414</v>
+        <v>56.37392987329654</v>
       </c>
       <c r="N9" t="n">
-        <v>100.5772628177064</v>
+        <v>74.51358965724877</v>
       </c>
       <c r="O9" t="n">
-        <v>117.1715076498293</v>
+        <v>91.1078344893717</v>
       </c>
       <c r="P9" t="n">
-        <v>130.4898521020749</v>
+        <v>104.4261789416173</v>
       </c>
       <c r="Q9" t="n">
-        <v>139.3928126638406</v>
+        <v>124.3581591730573</v>
       </c>
       <c r="R9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="S9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="T9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="U9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="V9" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="W9" t="n">
-        <v>165.2600121901093</v>
+        <v>127.8182329816055</v>
       </c>
       <c r="X9" t="n">
-        <v>165.2600121901093</v>
+        <v>86.08590667097184</v>
       </c>
       <c r="Y9" t="n">
-        <v>165.2600121901093</v>
+        <v>44.35358036033816</v>
       </c>
     </row>
     <row r="10">
@@ -4938,76 +4938,76 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>123.5276858794757</v>
+        <v>104.7923756428305</v>
       </c>
       <c r="C10" t="n">
-        <v>81.79535956884197</v>
+        <v>86.76985286506957</v>
       </c>
       <c r="D10" t="n">
-        <v>40.0630332582083</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="E10" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="F10" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="G10" t="n">
-        <v>3.305200243802187</v>
+        <v>45.03752655443588</v>
       </c>
       <c r="H10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="I10" t="n">
-        <v>3.305200243802187</v>
+        <v>3.305200243802188</v>
       </c>
       <c r="J10" t="n">
-        <v>13.3735654699373</v>
+        <v>44.20705326085427</v>
       </c>
       <c r="K10" t="n">
-        <v>54.27541848698936</v>
+        <v>85.10890627790634</v>
       </c>
       <c r="L10" t="n">
-        <v>95.17727150404141</v>
+        <v>93.80214871704736</v>
       </c>
       <c r="M10" t="n">
-        <v>136.0791245210935</v>
+        <v>102.9679539865905</v>
       </c>
       <c r="N10" t="n">
-        <v>145.026987427909</v>
+        <v>111.915816893406</v>
       </c>
       <c r="O10" t="n">
-        <v>153.2917870759318</v>
+        <v>120.1806165414288</v>
       </c>
       <c r="P10" t="n">
-        <v>160.3637509630745</v>
+        <v>127.2525804285715</v>
       </c>
       <c r="Q10" t="n">
-        <v>165.2600121901093</v>
+        <v>165.2600121901094</v>
       </c>
       <c r="R10" t="n">
-        <v>165.2600121901093</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="S10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="T10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="U10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="V10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="W10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="X10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
       <c r="Y10" t="n">
-        <v>123.5276858794757</v>
+        <v>146.5247019534642</v>
       </c>
     </row>
     <row r="11">
@@ -5017,76 +5017,76 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>1344.758510807007</v>
+        <v>1003.577230747564</v>
       </c>
       <c r="C11" t="n">
-        <v>1344.758510807007</v>
+        <v>1003.577230747564</v>
       </c>
       <c r="D11" t="n">
-        <v>908.8487259814518</v>
+        <v>567.6674459220085</v>
       </c>
       <c r="E11" t="n">
-        <v>475.073981139747</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="F11" t="n">
-        <v>47.20655154895473</v>
+        <v>446.7092428694776</v>
       </c>
       <c r="G11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="H11" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I11" t="n">
-        <v>118.4065018001352</v>
+        <v>118.4065018001357</v>
       </c>
       <c r="J11" t="n">
-        <v>276.0532770435805</v>
+        <v>276.0532770435814</v>
       </c>
       <c r="K11" t="n">
-        <v>512.3249274228015</v>
+        <v>512.3249274228024</v>
       </c>
       <c r="L11" t="n">
-        <v>805.440802286702</v>
+        <v>805.440802286703</v>
       </c>
       <c r="M11" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N11" t="n">
-        <v>1463.013992431966</v>
+        <v>1463.013992431968</v>
       </c>
       <c r="O11" t="n">
-        <v>1775.969506973259</v>
+        <v>1775.96950697326</v>
       </c>
       <c r="P11" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q11" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R11" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S11" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662535</v>
       </c>
       <c r="T11" t="n">
-        <v>2360.327577447737</v>
+        <v>2108.089956131647</v>
       </c>
       <c r="U11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="V11" t="n">
-        <v>2360.327577447737</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="W11" t="n">
-        <v>1955.47212285877</v>
+        <v>1849.019264653161</v>
       </c>
       <c r="X11" t="n">
-        <v>1536.32965943808</v>
+        <v>1429.876801232472</v>
       </c>
       <c r="Y11" t="n">
-        <v>1344.758510807007</v>
+        <v>1429.876801232472</v>
       </c>
     </row>
     <row r="12">
@@ -5099,7 +5099,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C12" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D12" t="n">
         <v>341.0245550495863</v>
@@ -5111,25 +5111,25 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G12" t="n">
-        <v>79.14920158235849</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H12" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="I12" t="n">
-        <v>81.42328772043084</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J12" t="n">
-        <v>175.3166270668981</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K12" t="n">
-        <v>335.7952991210685</v>
+        <v>335.7952991210681</v>
       </c>
       <c r="L12" t="n">
-        <v>551.5786779960906</v>
+        <v>551.5786779960905</v>
       </c>
       <c r="M12" t="n">
-        <v>803.387703298788</v>
+        <v>803.3877032987879</v>
       </c>
       <c r="N12" t="n">
         <v>1061.861364220108</v>
@@ -5175,76 +5175,76 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>941.8604769596202</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C13" t="n">
-        <v>769.2987654428451</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D13" t="n">
-        <v>753.852136908379</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E13" t="n">
-        <v>584.0941331591162</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F13" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G13" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H13" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I13" t="n">
-        <v>47.20655154895473</v>
+        <v>47.20655154895475</v>
       </c>
       <c r="J13" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K13" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L13" t="n">
-        <v>481.9462364092375</v>
+        <v>688.1212571728194</v>
       </c>
       <c r="M13" t="n">
-        <v>1066.127311827552</v>
+        <v>818.7256495113488</v>
       </c>
       <c r="N13" t="n">
-        <v>1635.885026789086</v>
+        <v>1120.185357954414</v>
       </c>
       <c r="O13" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P13" t="n">
-        <v>2274.089213540313</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q13" t="n">
-        <v>2343.856484770969</v>
+        <v>2343.85648477097</v>
       </c>
       <c r="R13" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S13" t="n">
-        <v>2215.901038951971</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T13" t="n">
-        <v>1973.653814855378</v>
+        <v>2131.32719598299</v>
       </c>
       <c r="U13" t="n">
-        <v>1973.653814855378</v>
+        <v>1852.940564031733</v>
       </c>
       <c r="V13" t="n">
-        <v>1686.698306725808</v>
+        <v>1565.985055902163</v>
       </c>
       <c r="W13" t="n">
-        <v>1414.6719023121</v>
+        <v>1293.958651488455</v>
       </c>
       <c r="X13" t="n">
-        <v>1169.280147645512</v>
+        <v>1048.566896821867</v>
       </c>
       <c r="Y13" t="n">
-        <v>941.8604769596202</v>
+        <v>821.1472261359754</v>
       </c>
     </row>
     <row r="14">
@@ -5254,49 +5254,49 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>910.9837659653025</v>
+        <v>1722.256755431941</v>
       </c>
       <c r="C14" t="n">
-        <v>910.9837659653025</v>
+        <v>1722.256755431941</v>
       </c>
       <c r="D14" t="n">
-        <v>475.073981139747</v>
+        <v>1286.346970606386</v>
       </c>
       <c r="E14" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F14" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G14" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H14" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I14" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J14" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435805</v>
       </c>
       <c r="K14" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228015</v>
       </c>
       <c r="L14" t="n">
-        <v>805.4408022867025</v>
+        <v>805.4408022867023</v>
       </c>
       <c r="M14" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N14" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O14" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P14" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q14" t="n">
         <v>2243.650993163596</v>
@@ -5305,25 +5305,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S14" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T14" t="n">
-        <v>2108.089956131646</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U14" t="n">
-        <v>1849.01926465316</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V14" t="n">
-        <v>1486.402314586987</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="W14" t="n">
-        <v>1330.126229385992</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="X14" t="n">
-        <v>910.9837659653025</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="Y14" t="n">
-        <v>910.9837659653025</v>
+        <v>2148.556325916849</v>
       </c>
     </row>
     <row r="15">
@@ -5336,7 +5336,7 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C15" t="n">
-        <v>436.114843903033</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D15" t="n">
         <v>341.0245550495863</v>
@@ -5348,19 +5348,19 @@
         <v>163.5203019927016</v>
       </c>
       <c r="G15" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235849</v>
       </c>
       <c r="H15" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I15" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043098</v>
       </c>
       <c r="J15" t="n">
-        <v>175.316627066898</v>
+        <v>175.3166270668981</v>
       </c>
       <c r="K15" t="n">
-        <v>335.7952991210682</v>
+        <v>335.7952991210685</v>
       </c>
       <c r="L15" t="n">
         <v>551.5786779960906</v>
@@ -5412,28 +5412,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>1092.291841223631</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C16" t="n">
-        <v>919.7301297068562</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D16" t="n">
-        <v>753.852136908379</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E16" t="n">
-        <v>584.0941331591162</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F16" t="n">
-        <v>407.3870791208724</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="G16" t="n">
-        <v>242.6458987333908</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H16" t="n">
-        <v>110.3018381127067</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I16" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J16" t="n">
         <v>192.6919004158277</v>
@@ -5445,16 +5445,16 @@
         <v>1106.33113894078</v>
       </c>
       <c r="M16" t="n">
-        <v>1412.355695376305</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N16" t="n">
-        <v>1539.854607180195</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O16" t="n">
-        <v>1657.620488527957</v>
+        <v>1657.620488527956</v>
       </c>
       <c r="P16" t="n">
-        <v>2105.896438675982</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q16" t="n">
         <v>2343.856484770969</v>
@@ -5463,25 +5463,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S16" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T16" t="n">
-        <v>1973.653814855378</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U16" t="n">
-        <v>1973.653814855378</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V16" t="n">
-        <v>1686.698306725809</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W16" t="n">
-        <v>1414.6719023121</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X16" t="n">
-        <v>1169.280147645513</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y16" t="n">
-        <v>1169.280147645513</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="17">
@@ -5491,22 +5491,22 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>765.4265856715607</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="C17" t="n">
-        <v>765.4265856715607</v>
+        <v>1663.114413152674</v>
       </c>
       <c r="D17" t="n">
-        <v>765.4265856715607</v>
+        <v>1227.204628327119</v>
       </c>
       <c r="E17" t="n">
-        <v>765.4265856715607</v>
+        <v>793.4298834854139</v>
       </c>
       <c r="F17" t="n">
-        <v>716.4307943255671</v>
+        <v>365.5624538946217</v>
       </c>
       <c r="G17" t="n">
-        <v>316.9281030050443</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H17" t="n">
         <v>47.20655154895474</v>
@@ -5548,19 +5548,19 @@
         <v>2360.327577447737</v>
       </c>
       <c r="U17" t="n">
-        <v>2360.327577447737</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="V17" t="n">
-        <v>1997.710627381563</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="W17" t="n">
-        <v>1592.855172792597</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="X17" t="n">
-        <v>1173.712709371907</v>
+        <v>2101.256885969251</v>
       </c>
       <c r="Y17" t="n">
-        <v>765.4265856715607</v>
+        <v>2101.256885969251</v>
       </c>
     </row>
     <row r="18">
@@ -5570,22 +5570,22 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>542.571305066391</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C18" t="n">
-        <v>436.1148439030333</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D18" t="n">
-        <v>341.0245550495865</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E18" t="n">
-        <v>246.9041403765402</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F18" t="n">
-        <v>163.5203019927018</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G18" t="n">
-        <v>79.14920158235873</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H18" t="n">
         <v>47.20655154895474</v>
@@ -5633,13 +5633,13 @@
         <v>1130.551175394859</v>
       </c>
       <c r="W18" t="n">
-        <v>945.2284211280535</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X18" t="n">
-        <v>790.3609853669334</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y18" t="n">
-        <v>663.8752061461541</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="19">
@@ -5649,49 +5649,49 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>616.081764785142</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="C19" t="n">
-        <v>443.520053268367</v>
+        <v>754.9889493193747</v>
       </c>
       <c r="D19" t="n">
-        <v>393.6716093364613</v>
+        <v>589.1109565208974</v>
       </c>
       <c r="E19" t="n">
-        <v>223.9136055871985</v>
+        <v>419.3529527716346</v>
       </c>
       <c r="F19" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="G19" t="n">
-        <v>47.20655154895474</v>
+        <v>242.6458987333908</v>
       </c>
       <c r="H19" t="n">
-        <v>47.20655154895474</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="I19" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="J19" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K19" t="n">
-        <v>477.6707703898317</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L19" t="n">
-        <v>601.5415720081296</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M19" t="n">
-        <v>1185.722647426444</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N19" t="n">
-        <v>1755.480362387978</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O19" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P19" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q19" t="n">
         <v>2343.856484770969</v>
@@ -5718,7 +5718,7 @@
         <v>1035.320054190021</v>
       </c>
       <c r="Y19" t="n">
-        <v>807.9003835041292</v>
+        <v>946.8075680383618</v>
       </c>
     </row>
     <row r="20">
@@ -5728,16 +5728,16 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
       <c r="C20" t="n">
-        <v>1344.758510807007</v>
+        <v>916.8910812162151</v>
       </c>
       <c r="D20" t="n">
-        <v>908.8487259814518</v>
+        <v>480.9812963906596</v>
       </c>
       <c r="E20" t="n">
-        <v>475.073981139747</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="F20" t="n">
         <v>47.20655154895474</v>
@@ -5749,13 +5749,13 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I20" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J20" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K20" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L20" t="n">
         <v>805.4408022867025</v>
@@ -5785,19 +5785,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U20" t="n">
-        <v>2060.790516184048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V20" t="n">
-        <v>1782.900983623584</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W20" t="n">
-        <v>1782.900983623584</v>
+        <v>2182.462141153827</v>
       </c>
       <c r="X20" t="n">
-        <v>1782.900983623584</v>
+        <v>1763.319677733138</v>
       </c>
       <c r="Y20" t="n">
-        <v>1782.900983623584</v>
+        <v>1355.033554032792</v>
       </c>
     </row>
     <row r="21">
@@ -5886,22 +5886,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>616.081764785142</v>
+        <v>471.655226289377</v>
       </c>
       <c r="C22" t="n">
-        <v>443.520053268367</v>
+        <v>299.093514772602</v>
       </c>
       <c r="D22" t="n">
-        <v>393.6716093364613</v>
+        <v>299.093514772602</v>
       </c>
       <c r="E22" t="n">
-        <v>223.9136055871985</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="F22" t="n">
-        <v>47.20655154895474</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="G22" t="n">
-        <v>47.20655154895474</v>
+        <v>129.3355110233392</v>
       </c>
       <c r="H22" t="n">
         <v>47.20655154895474</v>
@@ -5910,25 +5910,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J22" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K22" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L22" t="n">
-        <v>481.9462364092383</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M22" t="n">
-        <v>1066.127311827553</v>
+        <v>1236.93553127931</v>
       </c>
       <c r="N22" t="n">
-        <v>1635.885026789087</v>
+        <v>1364.434443083199</v>
       </c>
       <c r="O22" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P22" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q22" t="n">
         <v>2343.856484770969</v>
@@ -5937,25 +5937,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S22" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T22" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U22" t="n">
-        <v>1839.693721399886</v>
+        <v>1695.267182904121</v>
       </c>
       <c r="V22" t="n">
-        <v>1552.738213270317</v>
+        <v>1408.311674774552</v>
       </c>
       <c r="W22" t="n">
-        <v>1280.711808856609</v>
+        <v>1136.285270360843</v>
       </c>
       <c r="X22" t="n">
-        <v>1035.320054190021</v>
+        <v>890.8935156942559</v>
       </c>
       <c r="Y22" t="n">
-        <v>807.9003835041292</v>
+        <v>663.4738450083642</v>
       </c>
     </row>
     <row r="23">
@@ -5965,37 +5965,37 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>1582.440696732936</v>
+        <v>1893.561637177626</v>
       </c>
       <c r="C23" t="n">
-        <v>1144.298223916359</v>
+        <v>1455.41916436105</v>
       </c>
       <c r="D23" t="n">
-        <v>1144.298223916359</v>
+        <v>1019.509379535494</v>
       </c>
       <c r="E23" t="n">
-        <v>1144.298223916359</v>
+        <v>585.7346346937893</v>
       </c>
       <c r="F23" t="n">
-        <v>716.4307943255671</v>
+        <v>157.867205102997</v>
       </c>
       <c r="G23" t="n">
-        <v>316.9281030050443</v>
+        <v>157.867205102997</v>
       </c>
       <c r="H23" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I23" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J23" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K23" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L23" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M23" t="n">
         <v>1131.58869045549</v>
@@ -6010,31 +6010,31 @@
         <v>2043.069798152529</v>
       </c>
       <c r="Q23" t="n">
-        <v>2243.650993163596</v>
+        <v>2243.650993163597</v>
       </c>
       <c r="R23" t="n">
         <v>2360.327577447737</v>
       </c>
       <c r="S23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="T23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="U23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="V23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="W23" t="n">
-        <v>2360.327577447737</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="X23" t="n">
-        <v>1941.185114027048</v>
+        <v>2319.861207662534</v>
       </c>
       <c r="Y23" t="n">
-        <v>1582.440696732936</v>
+        <v>2319.861207662534</v>
       </c>
     </row>
     <row r="24">
@@ -6123,10 +6123,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>566.2333208532364</v>
+        <v>732.1113136517137</v>
       </c>
       <c r="C25" t="n">
-        <v>393.6716093364613</v>
+        <v>559.5496021349386</v>
       </c>
       <c r="D25" t="n">
         <v>393.6716093364613</v>
@@ -6153,16 +6153,16 @@
         <v>202.912315818696</v>
       </c>
       <c r="L25" t="n">
-        <v>481.9462364092383</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M25" t="n">
-        <v>1066.127311827553</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N25" t="n">
-        <v>1635.885026789087</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O25" t="n">
-        <v>2173.32015736263</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P25" t="n">
         <v>2274.089213540314</v>
@@ -6174,25 +6174,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S25" t="n">
-        <v>2310.479133515832</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T25" t="n">
-        <v>2068.231909419238</v>
+        <v>2234.109902217715</v>
       </c>
       <c r="U25" t="n">
-        <v>1789.845277467981</v>
+        <v>1955.723270266458</v>
       </c>
       <c r="V25" t="n">
-        <v>1502.889769338411</v>
+        <v>1668.767762136888</v>
       </c>
       <c r="W25" t="n">
-        <v>1230.863364924703</v>
+        <v>1396.74135772318</v>
       </c>
       <c r="X25" t="n">
-        <v>985.4716102581153</v>
+        <v>1151.349603056593</v>
       </c>
       <c r="Y25" t="n">
-        <v>758.0519395722235</v>
+        <v>923.9299323707007</v>
       </c>
     </row>
     <row r="26">
@@ -6202,22 +6202,22 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>475.073981139747</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="C26" t="n">
-        <v>475.073981139747</v>
+        <v>1347.796903034099</v>
       </c>
       <c r="D26" t="n">
-        <v>475.073981139747</v>
+        <v>911.8871182085436</v>
       </c>
       <c r="E26" t="n">
-        <v>475.073981139747</v>
+        <v>911.8871182085436</v>
       </c>
       <c r="F26" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G26" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H26" t="n">
         <v>47.20655154895474</v>
@@ -6229,13 +6229,13 @@
         <v>276.0532770435806</v>
       </c>
       <c r="K26" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L26" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867026</v>
       </c>
       <c r="M26" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N26" t="n">
         <v>1463.013992431967</v>
@@ -6244,7 +6244,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P26" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q26" t="n">
         <v>2243.650993163596</v>
@@ -6256,22 +6256,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T26" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U26" t="n">
-        <v>2101.256885969251</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V26" t="n">
-        <v>1738.639935903077</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="W26" t="n">
-        <v>1333.784481314111</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="X26" t="n">
-        <v>914.6420178934214</v>
+        <v>1785.939375850676</v>
       </c>
       <c r="Y26" t="n">
-        <v>901.3735516246547</v>
+        <v>1785.939375850676</v>
       </c>
     </row>
     <row r="27">
@@ -6360,22 +6360,22 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>950.4293531379337</v>
+        <v>616.081764785142</v>
       </c>
       <c r="C28" t="n">
-        <v>856.6348431431041</v>
+        <v>443.520053268367</v>
       </c>
       <c r="D28" t="n">
-        <v>690.7568503446269</v>
+        <v>393.6716093364613</v>
       </c>
       <c r="E28" t="n">
-        <v>520.9988465953642</v>
+        <v>223.9136055871985</v>
       </c>
       <c r="F28" t="n">
-        <v>344.2917925571204</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="G28" t="n">
-        <v>179.5506121696388</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="H28" t="n">
         <v>47.20655154895474</v>
@@ -6384,25 +6384,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J28" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K28" t="n">
-        <v>564.2504555545214</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L28" t="n">
-        <v>733.4227107706877</v>
+        <v>588.0160255186817</v>
       </c>
       <c r="M28" t="n">
-        <v>1317.603786189002</v>
+        <v>718.6204178572111</v>
       </c>
       <c r="N28" t="n">
-        <v>1887.361501150537</v>
+        <v>1288.378132818745</v>
       </c>
       <c r="O28" t="n">
-        <v>2005.127382498298</v>
+        <v>1825.813263392288</v>
       </c>
       <c r="P28" t="n">
-        <v>2105.896438675982</v>
+        <v>2274.089213540314</v>
       </c>
       <c r="Q28" t="n">
         <v>2343.856484770969</v>
@@ -6411,25 +6411,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S28" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T28" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U28" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V28" t="n">
-        <v>1695.267182904121</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W28" t="n">
-        <v>1423.240778490413</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X28" t="n">
-        <v>1177.849023823826</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y28" t="n">
-        <v>950.4293531379337</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
     <row r="29">
@@ -6439,49 +6439,49 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>1782.900983623584</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="C29" t="n">
-        <v>1344.758510807007</v>
+        <v>695.1038667701273</v>
       </c>
       <c r="D29" t="n">
-        <v>908.8487259814518</v>
+        <v>259.1940819445718</v>
       </c>
       <c r="E29" t="n">
-        <v>475.073981139747</v>
+        <v>259.1940819445718</v>
       </c>
       <c r="F29" t="n">
-        <v>47.20655154895474</v>
+        <v>259.1940819445718</v>
       </c>
       <c r="G29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H29" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I29" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J29" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K29" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L29" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M29" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N29" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O29" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P29" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q29" t="n">
         <v>2243.650993163596</v>
@@ -6499,16 +6499,16 @@
         <v>2319.861207662534</v>
       </c>
       <c r="V29" t="n">
-        <v>2319.861207662534</v>
+        <v>1957.24425759636</v>
       </c>
       <c r="W29" t="n">
-        <v>2319.861207662534</v>
+        <v>1552.388803007393</v>
       </c>
       <c r="X29" t="n">
-        <v>2319.861207662534</v>
+        <v>1133.246339586704</v>
       </c>
       <c r="Y29" t="n">
-        <v>1911.575083962187</v>
+        <v>1133.246339586704</v>
       </c>
     </row>
     <row r="30">
@@ -6521,25 +6521,25 @@
         <v>542.5713050663908</v>
       </c>
       <c r="C30" t="n">
-        <v>436.1148439030331</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D30" t="n">
-        <v>341.0245550495864</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E30" t="n">
-        <v>246.9041403765401</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F30" t="n">
-        <v>163.5203019927017</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G30" t="n">
-        <v>79.1492015823585</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H30" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I30" t="n">
-        <v>81.42328772043086</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J30" t="n">
         <v>175.316627066898</v>
@@ -6597,49 +6597,49 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>1092.291841223631</v>
+        <v>613.4827228154406</v>
       </c>
       <c r="C31" t="n">
-        <v>919.7301297068562</v>
+        <v>440.9210112986656</v>
       </c>
       <c r="D31" t="n">
-        <v>753.852136908379</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="E31" t="n">
-        <v>584.0941331591162</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="F31" t="n">
-        <v>407.3870791208724</v>
+        <v>275.0430185001883</v>
       </c>
       <c r="G31" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H31" t="n">
         <v>110.3018381127067</v>
       </c>
       <c r="I31" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J31" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K31" t="n">
-        <v>564.2504555545214</v>
+        <v>477.6707703898316</v>
       </c>
       <c r="L31" t="n">
-        <v>733.4227107706872</v>
+        <v>1019.75145377609</v>
       </c>
       <c r="M31" t="n">
-        <v>1317.603786189002</v>
+        <v>1150.35584611462</v>
       </c>
       <c r="N31" t="n">
-        <v>1887.361501150536</v>
+        <v>1277.854757918509</v>
       </c>
       <c r="O31" t="n">
-        <v>2005.127382498298</v>
+        <v>1815.289888492053</v>
       </c>
       <c r="P31" t="n">
-        <v>2105.896438675981</v>
+        <v>2263.565838640078</v>
       </c>
       <c r="Q31" t="n">
         <v>2343.856484770969</v>
@@ -6648,25 +6648,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S31" t="n">
-        <v>2215.901038951972</v>
+        <v>2357.728535478036</v>
       </c>
       <c r="T31" t="n">
-        <v>2215.901038951972</v>
+        <v>2115.481311381442</v>
       </c>
       <c r="U31" t="n">
-        <v>1937.514407000715</v>
+        <v>1837.094679430185</v>
       </c>
       <c r="V31" t="n">
-        <v>1937.514407000715</v>
+        <v>1550.139171300616</v>
       </c>
       <c r="W31" t="n">
-        <v>1756.921885295098</v>
+        <v>1278.112766886907</v>
       </c>
       <c r="X31" t="n">
-        <v>1511.53013062851</v>
+        <v>1032.72101222032</v>
       </c>
       <c r="Y31" t="n">
-        <v>1284.110459942618</v>
+        <v>805.3013415344278</v>
       </c>
     </row>
     <row r="32">
@@ -6676,19 +6676,19 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2016.215441574641</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="C32" t="n">
-        <v>1578.072968758064</v>
+        <v>1622.648043367471</v>
       </c>
       <c r="D32" t="n">
-        <v>1578.072968758064</v>
+        <v>1186.738258541916</v>
       </c>
       <c r="E32" t="n">
-        <v>1144.298223916359</v>
+        <v>752.963513700211</v>
       </c>
       <c r="F32" t="n">
-        <v>716.4307943255671</v>
+        <v>325.0960841094188</v>
       </c>
       <c r="G32" t="n">
         <v>316.9281030050443</v>
@@ -6697,19 +6697,19 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I32" t="n">
-        <v>118.4065018001353</v>
+        <v>118.4065018001355</v>
       </c>
       <c r="J32" t="n">
-        <v>276.0532770435806</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K32" t="n">
-        <v>512.3249274228016</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L32" t="n">
-        <v>805.4408022867023</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M32" t="n">
-        <v>1131.588690455489</v>
+        <v>1131.58869045549</v>
       </c>
       <c r="N32" t="n">
         <v>1463.013992431967</v>
@@ -6718,7 +6718,7 @@
         <v>1775.96950697326</v>
       </c>
       <c r="P32" t="n">
-        <v>2043.069798152528</v>
+        <v>2043.069798152529</v>
       </c>
       <c r="Q32" t="n">
         <v>2243.650993163596</v>
@@ -6733,19 +6733,19 @@
         <v>2319.861207662534</v>
       </c>
       <c r="U32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="V32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="W32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="X32" t="n">
-        <v>2319.861207662534</v>
+        <v>2060.790516184048</v>
       </c>
       <c r="Y32" t="n">
-        <v>2016.215441574641</v>
+        <v>2060.790516184048</v>
       </c>
     </row>
     <row r="33">
@@ -6755,76 +6755,76 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C33" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D33" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E33" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F33" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G33" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H33" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I33" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J33" t="n">
-        <v>858.9930882810428</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K33" t="n">
-        <v>1019.471760335213</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L33" t="n">
-        <v>1235.255139210235</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M33" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N33" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O33" t="n">
-        <v>1981.990728248783</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P33" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q33" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R33" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S33" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T33" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U33" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V33" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W33" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X33" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y33" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="34">
@@ -6834,19 +6834,19 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>616.081764785142</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C34" t="n">
-        <v>443.520053268367</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="D34" t="n">
-        <v>443.520053268367</v>
+        <v>558.4127897239429</v>
       </c>
       <c r="E34" t="n">
-        <v>273.7620495191042</v>
+        <v>388.6547859746801</v>
       </c>
       <c r="F34" t="n">
-        <v>97.05499548086041</v>
+        <v>211.9477319364363</v>
       </c>
       <c r="G34" t="n">
         <v>47.20655154895474</v>
@@ -6867,13 +6867,13 @@
         <v>744.992999204955</v>
       </c>
       <c r="M34" t="n">
-        <v>875.5973915434845</v>
+        <v>1329.17407462327</v>
       </c>
       <c r="N34" t="n">
-        <v>1445.355106505019</v>
+        <v>1635.885026789087</v>
       </c>
       <c r="O34" t="n">
-        <v>1982.790237078562</v>
+        <v>2173.32015736263</v>
       </c>
       <c r="P34" t="n">
         <v>2274.089213540314</v>
@@ -6888,22 +6888,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T34" t="n">
-        <v>2118.080353351143</v>
+        <v>2226.289371088422</v>
       </c>
       <c r="U34" t="n">
-        <v>1839.693721399886</v>
+        <v>1947.902739137165</v>
       </c>
       <c r="V34" t="n">
-        <v>1552.738213270317</v>
+        <v>1660.947231007595</v>
       </c>
       <c r="W34" t="n">
-        <v>1280.711808856609</v>
+        <v>1388.920826593887</v>
       </c>
       <c r="X34" t="n">
-        <v>1035.320054190021</v>
+        <v>1143.529071927299</v>
       </c>
       <c r="Y34" t="n">
-        <v>807.9003835041292</v>
+        <v>916.1094012414073</v>
       </c>
     </row>
     <row r="35">
@@ -6913,49 +6913,49 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>1782.900983623584</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="C35" t="n">
-        <v>1344.758510807007</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="D35" t="n">
-        <v>908.8487259814518</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="E35" t="n">
-        <v>475.073981139747</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F35" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G35" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H35" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I35" t="n">
-        <v>118.4065018001357</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J35" t="n">
-        <v>276.0532770435809</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K35" t="n">
-        <v>512.3249274228019</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L35" t="n">
-        <v>805.4408022867026</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M35" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N35" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O35" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P35" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q35" t="n">
         <v>2243.650993163596</v>
@@ -6967,22 +6967,22 @@
         <v>2360.327577447737</v>
       </c>
       <c r="T35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="U35" t="n">
-        <v>2360.327577447737</v>
+        <v>2148.556325916849</v>
       </c>
       <c r="V35" t="n">
-        <v>2360.327577447737</v>
+        <v>1970.158951931511</v>
       </c>
       <c r="W35" t="n">
-        <v>2360.327577447737</v>
+        <v>1970.158951931511</v>
       </c>
       <c r="X35" t="n">
-        <v>2209.200554108492</v>
+        <v>1551.016488510822</v>
       </c>
       <c r="Y35" t="n">
-        <v>2209.200554108492</v>
+        <v>1142.730364810475</v>
       </c>
     </row>
     <row r="36">
@@ -6992,76 +6992,76 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C36" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D36" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E36" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F36" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G36" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H36" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I36" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J36" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K36" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L36" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M36" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N36" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O36" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P36" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q36" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R36" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S36" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T36" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U36" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V36" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W36" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X36" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y36" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="37">
@@ -7071,7 +7071,7 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>896.8524940391952</v>
+        <v>724.2907825224202</v>
       </c>
       <c r="C37" t="n">
         <v>724.2907825224202</v>
@@ -7086,34 +7086,34 @@
         <v>211.9477319364363</v>
       </c>
       <c r="G37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="H37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I37" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J37" t="n">
-        <v>192.6919004158277</v>
+        <v>106.1122152511379</v>
       </c>
       <c r="K37" t="n">
-        <v>358.0754347909399</v>
+        <v>202.912315818696</v>
       </c>
       <c r="L37" t="n">
-        <v>481.9462364092378</v>
+        <v>481.9462364092375</v>
       </c>
       <c r="M37" t="n">
-        <v>1066.127311827553</v>
+        <v>1066.127311827552</v>
       </c>
       <c r="N37" t="n">
-        <v>1635.885026789087</v>
+        <v>1635.885026789086</v>
       </c>
       <c r="O37" t="n">
         <v>2173.32015736263</v>
       </c>
       <c r="P37" t="n">
-        <v>2274.089213540314</v>
+        <v>2274.089213540313</v>
       </c>
       <c r="Q37" t="n">
         <v>2343.856484770969</v>
@@ -7122,25 +7122,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S37" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T37" t="n">
-        <v>1973.653814855378</v>
+        <v>2226.289371088422</v>
       </c>
       <c r="U37" t="n">
-        <v>1833.50894252437</v>
+        <v>1947.902739137165</v>
       </c>
       <c r="V37" t="n">
-        <v>1833.50894252437</v>
+        <v>1660.947231007595</v>
       </c>
       <c r="W37" t="n">
-        <v>1561.482538110662</v>
+        <v>1388.920826593887</v>
       </c>
       <c r="X37" t="n">
-        <v>1316.090783444074</v>
+        <v>1143.529071927299</v>
       </c>
       <c r="Y37" t="n">
-        <v>1088.671112758182</v>
+        <v>916.1094012414073</v>
       </c>
     </row>
     <row r="38">
@@ -7150,49 +7150,49 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>1190.980360647176</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="C38" t="n">
-        <v>752.8378878305998</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="D38" t="n">
-        <v>316.9281030050443</v>
+        <v>1150.205539167272</v>
       </c>
       <c r="E38" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="F38" t="n">
-        <v>316.9281030050443</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G38" t="n">
         <v>316.9281030050443</v>
       </c>
       <c r="H38" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I38" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001351</v>
       </c>
       <c r="J38" t="n">
-        <v>276.0532770435808</v>
+        <v>276.0532770435804</v>
       </c>
       <c r="K38" t="n">
-        <v>512.3249274228018</v>
+        <v>512.3249274228014</v>
       </c>
       <c r="L38" t="n">
-        <v>805.4408022867025</v>
+        <v>805.440802286702</v>
       </c>
       <c r="M38" t="n">
-        <v>1131.58869045549</v>
+        <v>1131.588690455489</v>
       </c>
       <c r="N38" t="n">
-        <v>1463.013992431967</v>
+        <v>1463.013992431966</v>
       </c>
       <c r="O38" t="n">
-        <v>1775.96950697326</v>
+        <v>1775.969506973259</v>
       </c>
       <c r="P38" t="n">
-        <v>2043.069798152529</v>
+        <v>2043.069798152528</v>
       </c>
       <c r="Q38" t="n">
         <v>2243.650993163596</v>
@@ -7207,19 +7207,19 @@
         <v>2108.089956131646</v>
       </c>
       <c r="U38" t="n">
-        <v>1849.01926465316</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="V38" t="n">
-        <v>1486.402314586987</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="W38" t="n">
-        <v>1190.980360647176</v>
+        <v>2005.257787413517</v>
       </c>
       <c r="X38" t="n">
-        <v>1190.980360647176</v>
+        <v>1586.115323992828</v>
       </c>
       <c r="Y38" t="n">
-        <v>1190.980360647176</v>
+        <v>1586.115323992828</v>
       </c>
     </row>
     <row r="39">
@@ -7229,76 +7229,76 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C39" t="n">
-        <v>1119.791305117178</v>
+        <v>436.114843903033</v>
       </c>
       <c r="D39" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495863</v>
       </c>
       <c r="E39" t="n">
-        <v>930.5806015906853</v>
+        <v>246.90414037654</v>
       </c>
       <c r="F39" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927016</v>
       </c>
       <c r="G39" t="n">
-        <v>762.8256627965038</v>
+        <v>79.14920158235847</v>
       </c>
       <c r="H39" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="I39" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043084</v>
       </c>
       <c r="J39" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K39" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L39" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M39" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N39" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O39" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P39" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q39" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R39" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S39" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T39" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U39" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V39" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W39" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X39" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y39" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="40">
@@ -7308,19 +7308,19 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>1092.291841223631</v>
+        <v>992.2890823372263</v>
       </c>
       <c r="C40" t="n">
-        <v>919.7301297068562</v>
+        <v>819.7273708204513</v>
       </c>
       <c r="D40" t="n">
-        <v>753.852136908379</v>
+        <v>653.849378021974</v>
       </c>
       <c r="E40" t="n">
-        <v>584.0941331591162</v>
+        <v>484.0913742727112</v>
       </c>
       <c r="F40" t="n">
-        <v>407.3870791208724</v>
+        <v>307.3843202344674</v>
       </c>
       <c r="G40" t="n">
         <v>242.6458987333908</v>
@@ -7329,7 +7329,7 @@
         <v>110.3018381127067</v>
       </c>
       <c r="I40" t="n">
-        <v>47.20655154895474</v>
+        <v>47.20655154895473</v>
       </c>
       <c r="J40" t="n">
         <v>106.1122152511379</v>
@@ -7338,19 +7338,19 @@
         <v>202.912315818696</v>
       </c>
       <c r="L40" t="n">
-        <v>481.9462364092381</v>
+        <v>326.783117436994</v>
       </c>
       <c r="M40" t="n">
-        <v>1066.127311827553</v>
+        <v>897.9345369632205</v>
       </c>
       <c r="N40" t="n">
-        <v>1635.885026789087</v>
+        <v>1467.692251924755</v>
       </c>
       <c r="O40" t="n">
-        <v>2173.32015736263</v>
+        <v>2005.127382498298</v>
       </c>
       <c r="P40" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675981</v>
       </c>
       <c r="Q40" t="n">
         <v>2343.856484770969</v>
@@ -7359,25 +7359,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S40" t="n">
-        <v>2307.334921660063</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="T40" t="n">
-        <v>2307.334921660063</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="U40" t="n">
-        <v>2028.948289708806</v>
+        <v>2215.901038951971</v>
       </c>
       <c r="V40" t="n">
-        <v>2028.948289708806</v>
+        <v>1928.945530822401</v>
       </c>
       <c r="W40" t="n">
-        <v>1756.921885295098</v>
+        <v>1656.919126408693</v>
       </c>
       <c r="X40" t="n">
-        <v>1511.53013062851</v>
+        <v>1411.527371742105</v>
       </c>
       <c r="Y40" t="n">
-        <v>1284.110459942618</v>
+        <v>1184.107701056214</v>
       </c>
     </row>
     <row r="41">
@@ -7387,37 +7387,37 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>1782.900983623584</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="C41" t="n">
-        <v>1344.758510807007</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="D41" t="n">
-        <v>908.8487259814518</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="E41" t="n">
-        <v>475.073981139747</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="F41" t="n">
-        <v>47.20655154895474</v>
+        <v>716.4307943255671</v>
       </c>
       <c r="G41" t="n">
-        <v>47.20655154895474</v>
+        <v>316.9281030050443</v>
       </c>
       <c r="H41" t="n">
         <v>47.20655154895474</v>
       </c>
       <c r="I41" t="n">
-        <v>118.4065018001355</v>
+        <v>118.4065018001356</v>
       </c>
       <c r="J41" t="n">
-        <v>276.0532770435807</v>
+        <v>276.0532770435808</v>
       </c>
       <c r="K41" t="n">
-        <v>512.3249274228017</v>
+        <v>512.3249274228018</v>
       </c>
       <c r="L41" t="n">
-        <v>805.4408022867024</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M41" t="n">
         <v>1131.58869045549</v>
@@ -7441,22 +7441,22 @@
         <v>2319.861207662534</v>
       </c>
       <c r="T41" t="n">
-        <v>2319.861207662534</v>
+        <v>2108.089956131646</v>
       </c>
       <c r="U41" t="n">
-        <v>2319.861207662534</v>
+        <v>1849.01926465316</v>
       </c>
       <c r="V41" t="n">
-        <v>2319.861207662534</v>
+        <v>1486.402314586987</v>
       </c>
       <c r="W41" t="n">
-        <v>2319.861207662534</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="X41" t="n">
-        <v>1900.718744241845</v>
+        <v>1144.298223916359</v>
       </c>
       <c r="Y41" t="n">
-        <v>1900.718744241845</v>
+        <v>1144.298223916359</v>
       </c>
     </row>
     <row r="42">
@@ -7466,76 +7466,76 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>1226.247766280536</v>
+        <v>542.5713050663908</v>
       </c>
       <c r="C42" t="n">
-        <v>1119.791305117178</v>
+        <v>436.1148439030331</v>
       </c>
       <c r="D42" t="n">
-        <v>1024.701016263732</v>
+        <v>341.0245550495864</v>
       </c>
       <c r="E42" t="n">
-        <v>930.5806015906853</v>
+        <v>246.9041403765401</v>
       </c>
       <c r="F42" t="n">
-        <v>847.196763206847</v>
+        <v>163.5203019927017</v>
       </c>
       <c r="G42" t="n">
-        <v>762.8256627965038</v>
+        <v>79.1492015823585</v>
       </c>
       <c r="H42" t="n">
-        <v>730.8830127631001</v>
+        <v>47.20655154895474</v>
       </c>
       <c r="I42" t="n">
-        <v>765.099748934576</v>
+        <v>81.42328772043086</v>
       </c>
       <c r="J42" t="n">
-        <v>858.9930882810432</v>
+        <v>175.316627066898</v>
       </c>
       <c r="K42" t="n">
-        <v>1019.471760335214</v>
+        <v>335.7952991210682</v>
       </c>
       <c r="L42" t="n">
-        <v>1235.255139210236</v>
+        <v>551.5786779960906</v>
       </c>
       <c r="M42" t="n">
-        <v>1487.064164512933</v>
+        <v>803.387703298788</v>
       </c>
       <c r="N42" t="n">
-        <v>1745.537825434253</v>
+        <v>1061.861364220108</v>
       </c>
       <c r="O42" t="n">
-        <v>1981.990728248784</v>
+        <v>1298.314267034639</v>
       </c>
       <c r="P42" t="n">
-        <v>2171.76502881359</v>
+        <v>1488.088567599445</v>
       </c>
       <c r="Q42" t="n">
-        <v>2298.624123021824</v>
+        <v>1614.947661807679</v>
       </c>
       <c r="R42" t="n">
-        <v>2360.327577447737</v>
+        <v>1676.651116233592</v>
       </c>
       <c r="S42" t="n">
-        <v>2315.706546847471</v>
+        <v>1632.030085633326</v>
       </c>
       <c r="T42" t="n">
-        <v>2189.614991723124</v>
+        <v>1505.938530508979</v>
       </c>
       <c r="U42" t="n">
-        <v>2013.345154547005</v>
+        <v>1329.66869333286</v>
       </c>
       <c r="V42" t="n">
-        <v>1814.227636609005</v>
+        <v>1130.551175394859</v>
       </c>
       <c r="W42" t="n">
-        <v>1628.904882342199</v>
+        <v>945.2284211280532</v>
       </c>
       <c r="X42" t="n">
-        <v>1474.037446581078</v>
+        <v>790.3609853669332</v>
       </c>
       <c r="Y42" t="n">
-        <v>1347.551667360299</v>
+        <v>663.8752061461539</v>
       </c>
     </row>
     <row r="43">
@@ -7545,22 +7545,22 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>732.1113136517137</v>
+        <v>750.0418582406339</v>
       </c>
       <c r="C43" t="n">
-        <v>559.5496021349386</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="D43" t="n">
-        <v>393.6716093364613</v>
+        <v>577.4801467238589</v>
       </c>
       <c r="E43" t="n">
-        <v>223.9136055871985</v>
+        <v>407.7221429745961</v>
       </c>
       <c r="F43" t="n">
-        <v>47.20655154895474</v>
+        <v>231.0150889363523</v>
       </c>
       <c r="G43" t="n">
-        <v>47.20655154895474</v>
+        <v>179.5506121696388</v>
       </c>
       <c r="H43" t="n">
         <v>47.20655154895474</v>
@@ -7569,25 +7569,25 @@
         <v>47.20655154895474</v>
       </c>
       <c r="J43" t="n">
-        <v>106.1122152511379</v>
+        <v>192.6919004158277</v>
       </c>
       <c r="K43" t="n">
-        <v>202.912315818696</v>
+        <v>564.2504555545214</v>
       </c>
       <c r="L43" t="n">
-        <v>481.9462364092378</v>
+        <v>1106.33113894078</v>
       </c>
       <c r="M43" t="n">
-        <v>1066.127311827553</v>
+        <v>1412.355695376305</v>
       </c>
       <c r="N43" t="n">
-        <v>1635.885026789087</v>
+        <v>1539.854607180195</v>
       </c>
       <c r="O43" t="n">
-        <v>2173.32015736263</v>
+        <v>1657.620488527957</v>
       </c>
       <c r="P43" t="n">
-        <v>2274.089213540314</v>
+        <v>2105.896438675982</v>
       </c>
       <c r="Q43" t="n">
         <v>2343.856484770969</v>
@@ -7596,25 +7596,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S43" t="n">
-        <v>2360.327577447737</v>
+        <v>2215.901038951972</v>
       </c>
       <c r="T43" t="n">
-        <v>2118.080353351143</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="U43" t="n">
-        <v>1955.723270266458</v>
+        <v>1973.653814855378</v>
       </c>
       <c r="V43" t="n">
-        <v>1668.767762136888</v>
+        <v>1686.698306725809</v>
       </c>
       <c r="W43" t="n">
-        <v>1396.74135772318</v>
+        <v>1414.6719023121</v>
       </c>
       <c r="X43" t="n">
-        <v>1151.349603056593</v>
+        <v>1169.280147645513</v>
       </c>
       <c r="Y43" t="n">
-        <v>923.9299323707007</v>
+        <v>941.8604769596211</v>
       </c>
     </row>
     <row r="44">
@@ -7624,13 +7624,13 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>1782.900983623584</v>
+        <v>913.2164539563237</v>
       </c>
       <c r="C44" t="n">
-        <v>1344.758510807007</v>
+        <v>475.073981139747</v>
       </c>
       <c r="D44" t="n">
-        <v>908.8487259814518</v>
+        <v>475.073981139747</v>
       </c>
       <c r="E44" t="n">
         <v>475.073981139747</v>
@@ -7645,16 +7645,16 @@
         <v>47.20655154895474</v>
       </c>
       <c r="I44" t="n">
-        <v>118.4065018001358</v>
+        <v>118.4065018001353</v>
       </c>
       <c r="J44" t="n">
-        <v>276.053277043581</v>
+        <v>276.0532770435809</v>
       </c>
       <c r="K44" t="n">
-        <v>512.324927422802</v>
+        <v>512.3249274228019</v>
       </c>
       <c r="L44" t="n">
-        <v>805.4408022867027</v>
+        <v>805.4408022867025</v>
       </c>
       <c r="M44" t="n">
         <v>1131.58869045549</v>
@@ -7675,25 +7675,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S44" t="n">
-        <v>2319.861207662534</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T44" t="n">
-        <v>2209.200554108492</v>
+        <v>2163.513942450887</v>
       </c>
       <c r="U44" t="n">
-        <v>2209.200554108492</v>
+        <v>2163.513942450887</v>
       </c>
       <c r="V44" t="n">
-        <v>2209.200554108492</v>
+        <v>2163.513942450887</v>
       </c>
       <c r="W44" t="n">
-        <v>2209.200554108492</v>
+        <v>1758.658487861921</v>
       </c>
       <c r="X44" t="n">
-        <v>2209.200554108492</v>
+        <v>1339.516024441231</v>
       </c>
       <c r="Y44" t="n">
-        <v>2209.200554108492</v>
+        <v>1339.516024441231</v>
       </c>
     </row>
     <row r="45">
@@ -7782,22 +7782,22 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>471.655226289377</v>
+        <v>629.3286074169882</v>
       </c>
       <c r="C46" t="n">
-        <v>471.655226289377</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="D46" t="n">
-        <v>471.655226289377</v>
+        <v>456.7668959002132</v>
       </c>
       <c r="E46" t="n">
-        <v>471.655226289377</v>
+        <v>287.0088921509505</v>
       </c>
       <c r="F46" t="n">
-        <v>407.3870791208724</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="G46" t="n">
-        <v>242.6458987333908</v>
+        <v>110.3018381127067</v>
       </c>
       <c r="H46" t="n">
         <v>110.3018381127067</v>
@@ -7821,10 +7821,10 @@
         <v>1898.931789584804</v>
       </c>
       <c r="O46" t="n">
-        <v>2173.32015736263</v>
+        <v>2016.697670932566</v>
       </c>
       <c r="P46" t="n">
-        <v>2274.089213540314</v>
+        <v>2117.466727110249</v>
       </c>
       <c r="Q46" t="n">
         <v>2343.856484770969</v>
@@ -7833,25 +7833,25 @@
         <v>2360.327577447737</v>
       </c>
       <c r="S46" t="n">
-        <v>2215.901038951972</v>
+        <v>2360.327577447737</v>
       </c>
       <c r="T46" t="n">
-        <v>1973.653814855378</v>
+        <v>2118.080353351143</v>
       </c>
       <c r="U46" t="n">
-        <v>1695.267182904121</v>
+        <v>1839.693721399886</v>
       </c>
       <c r="V46" t="n">
-        <v>1408.311674774552</v>
+        <v>1552.738213270317</v>
       </c>
       <c r="W46" t="n">
-        <v>1136.285270360843</v>
+        <v>1280.711808856609</v>
       </c>
       <c r="X46" t="n">
-        <v>890.8935156942559</v>
+        <v>1035.320054190021</v>
       </c>
       <c r="Y46" t="n">
-        <v>663.4738450083642</v>
+        <v>807.9003835041292</v>
       </c>
     </row>
   </sheetData>
@@ -8063,7 +8063,7 @@
         <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>14.6740698916886</v>
+        <v>0</v>
       </c>
       <c r="M3" t="n">
         <v>0</v>
@@ -8075,13 +8075,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>12.3477018752442</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
-        <v>0</v>
+        <v>6.168514336285526</v>
       </c>
       <c r="R3" t="n">
-        <v>0</v>
+        <v>20.85325743064593</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8136,10 +8136,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>20.96545941697644</v>
+        <v>20.96545941697539</v>
       </c>
       <c r="K4" t="n">
-        <v>0</v>
+        <v>17.74832799837518</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -8154,10 +8154,10 @@
         <v>0</v>
       </c>
       <c r="P4" t="n">
-        <v>17.74832799837606</v>
+        <v>0</v>
       </c>
       <c r="Q4" t="n">
-        <v>20.52986788788557</v>
+        <v>20.52986788788454</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -8312,13 +8312,13 @@
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>0</v>
+        <v>15.75922928236025</v>
       </c>
       <c r="Q6" t="n">
-        <v>11.14042390876192</v>
+        <v>32.32211359119833</v>
       </c>
       <c r="R6" t="n">
-        <v>36.94091896479667</v>
+        <v>0</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8373,28 +8373,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>0</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K7" t="n">
-        <v>0</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L7" t="n">
-        <v>0</v>
+        <v>32.53395007869803</v>
       </c>
       <c r="M7" t="n">
-        <v>0</v>
+        <v>0.9116767238302828</v>
       </c>
       <c r="N7" t="n">
-        <v>32.27675768710764</v>
+        <v>0</v>
       </c>
       <c r="O7" t="n">
-        <v>32.96672057477707</v>
+        <v>0</v>
       </c>
       <c r="P7" t="n">
-        <v>34.17160518172662</v>
+        <v>0</v>
       </c>
       <c r="Q7" t="n">
-        <v>5.622754059559076</v>
+        <v>0</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -8528,7 +8528,7 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>26.32694258632081</v>
+        <v>0</v>
       </c>
       <c r="J9" t="n">
         <v>0</v>
@@ -8552,10 +8552,10 @@
         <v>0</v>
       </c>
       <c r="Q9" t="n">
-        <v>0</v>
+        <v>11.14042390876192</v>
       </c>
       <c r="R9" t="n">
-        <v>21.7544002872377</v>
+        <v>36.94091896479665</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -8610,16 +8610,16 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>5.994313840311761</v>
+        <v>37.13925100285415</v>
       </c>
       <c r="K10" t="n">
-        <v>34.45295969778791</v>
+        <v>34.45295969778793</v>
       </c>
       <c r="L10" t="n">
-        <v>32.53395007869802</v>
+        <v>0</v>
       </c>
       <c r="M10" t="n">
-        <v>32.05661388637265</v>
+        <v>0</v>
       </c>
       <c r="N10" t="n">
         <v>0</v>
@@ -8631,7 +8631,7 @@
         <v>0</v>
       </c>
       <c r="Q10" t="n">
-        <v>0</v>
+        <v>33.44562680252832</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -8847,28 +8847,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K13" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L13" t="n">
-        <v>156.7304232042864</v>
+        <v>0</v>
       </c>
       <c r="M13" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N13" t="n">
-        <v>446.7260637956006</v>
+        <v>175.7179764032076</v>
       </c>
       <c r="O13" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P13" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q13" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R13" t="n">
         <v>0</v>
@@ -9093,13 +9093,13 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M16" t="n">
-        <v>177.1920849464602</v>
+        <v>0</v>
       </c>
       <c r="N16" t="n">
         <v>0</v>
       </c>
       <c r="O16" t="n">
-        <v>0</v>
+        <v>177.1920849464598</v>
       </c>
       <c r="P16" t="n">
         <v>351.0170646165068</v>
@@ -9321,28 +9321,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K19" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L19" t="n">
-        <v>0</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M19" t="n">
-        <v>458.1582657371569</v>
+        <v>0</v>
       </c>
       <c r="N19" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O19" t="n">
-        <v>303.104963259485</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P19" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q19" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R19" t="n">
         <v>0</v>
@@ -9558,28 +9558,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K22" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L22" t="n">
-        <v>156.7304232042871</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M22" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N22" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O22" t="n">
-        <v>423.9083325512944</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="P22" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q22" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R22" t="n">
         <v>0</v>
@@ -9801,10 +9801,10 @@
         <v>0</v>
       </c>
       <c r="L25" t="n">
-        <v>156.7304232042871</v>
+        <v>0</v>
       </c>
       <c r="M25" t="n">
-        <v>458.158265737157</v>
+        <v>263.871624324937</v>
       </c>
       <c r="N25" t="n">
         <v>446.7260637956006</v>
@@ -9813,7 +9813,7 @@
         <v>423.9083325512944</v>
       </c>
       <c r="P25" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q25" t="n">
         <v>0</v>
@@ -10032,28 +10032,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K28" t="n">
-        <v>277.5337924960966</v>
+        <v>0</v>
       </c>
       <c r="L28" t="n">
-        <v>45.75904403825086</v>
+        <v>263.871624324937</v>
       </c>
       <c r="M28" t="n">
-        <v>458.158265737157</v>
+        <v>0</v>
       </c>
       <c r="N28" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O28" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P28" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q28" t="n">
-        <v>169.8916917821538</v>
+        <v>0</v>
       </c>
       <c r="R28" t="n">
         <v>0</v>
@@ -10269,28 +10269,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K31" t="n">
         <v>277.5337924960966</v>
       </c>
       <c r="L31" t="n">
-        <v>45.75904403825041</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M31" t="n">
-        <v>458.1582657371571</v>
+        <v>0</v>
       </c>
       <c r="N31" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O31" t="n">
-        <v>0</v>
+        <v>423.9083325512944</v>
       </c>
       <c r="P31" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q31" t="n">
-        <v>169.8916917821538</v>
+        <v>10.62967161639926</v>
       </c>
       <c r="R31" t="n">
         <v>0</v>
@@ -10515,16 +10515,16 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M34" t="n">
-        <v>0</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N34" t="n">
-        <v>446.7260637956006</v>
+        <v>181.022262991846</v>
       </c>
       <c r="O34" t="n">
         <v>423.9083325512944</v>
       </c>
       <c r="P34" t="n">
-        <v>192.4544649334025</v>
+        <v>0</v>
       </c>
       <c r="Q34" t="n">
         <v>0</v>
@@ -10743,16 +10743,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>87.45422743908067</v>
+        <v>0</v>
       </c>
       <c r="K37" t="n">
-        <v>69.27619576520598</v>
+        <v>0</v>
       </c>
       <c r="L37" t="n">
-        <v>0</v>
+        <v>156.7304232042864</v>
       </c>
       <c r="M37" t="n">
-        <v>458.1582657371571</v>
+        <v>458.158265737157</v>
       </c>
       <c r="N37" t="n">
         <v>446.7260637956006</v>
@@ -10986,10 +10986,10 @@
         <v>0</v>
       </c>
       <c r="L40" t="n">
-        <v>156.7304232042869</v>
+        <v>0</v>
       </c>
       <c r="M40" t="n">
-        <v>458.158265737157</v>
+        <v>444.9969971592899</v>
       </c>
       <c r="N40" t="n">
         <v>446.7260637956006</v>
@@ -11001,7 +11001,7 @@
         <v>0</v>
       </c>
       <c r="Q40" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R40" t="n">
         <v>0</v>
@@ -11217,28 +11217,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>0</v>
+        <v>87.45422743908067</v>
       </c>
       <c r="K43" t="n">
-        <v>0</v>
+        <v>277.5337924960966</v>
       </c>
       <c r="L43" t="n">
-        <v>156.7304232042867</v>
+        <v>422.4342240080415</v>
       </c>
       <c r="M43" t="n">
-        <v>458.158265737157</v>
+        <v>177.1920849464602</v>
       </c>
       <c r="N43" t="n">
-        <v>446.7260637956006</v>
+        <v>0</v>
       </c>
       <c r="O43" t="n">
-        <v>423.9083325512944</v>
+        <v>0</v>
       </c>
       <c r="P43" t="n">
-        <v>0</v>
+        <v>351.0170646165068</v>
       </c>
       <c r="Q43" t="n">
-        <v>0</v>
+        <v>169.8916917821538</v>
       </c>
       <c r="R43" t="n">
         <v>0</v>
@@ -11463,19 +11463,19 @@
         <v>422.4342240080415</v>
       </c>
       <c r="M46" t="n">
-        <v>458.158265737157</v>
+        <v>458.1582657371571</v>
       </c>
       <c r="N46" t="n">
         <v>446.7260637956006</v>
       </c>
       <c r="O46" t="n">
+        <v>0</v>
+      </c>
+      <c r="P46" t="n">
+        <v>0</v>
+      </c>
+      <c r="Q46" t="n">
         <v>158.2045317475399</v>
-      </c>
-      <c r="P46" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q46" t="n">
-        <v>0</v>
       </c>
       <c r="R46" t="n">
         <v>0</v>
@@ -22546,19 +22546,19 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>22.03657478005869</v>
+        <v>0</v>
       </c>
       <c r="C2" t="n">
-        <v>10.4332488375853</v>
+        <v>33.76104808841092</v>
       </c>
       <c r="D2" t="n">
-        <v>8.222887726474291</v>
+        <v>8.222887726475459</v>
       </c>
       <c r="E2" t="n">
-        <v>6.109198142462141</v>
+        <v>22.54968612887823</v>
       </c>
       <c r="F2" t="n">
-        <v>3.041629714757129</v>
+        <v>0.2609560440598777</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -22612,7 +22612,7 @@
         <v>0.8069000430770075</v>
       </c>
       <c r="X2" t="n">
-        <v>14.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y2" t="n">
         <v>4.203262463343094</v>
@@ -23257,7 +23257,7 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C11" t="n">
         <v>433.7610480884109</v>
@@ -23266,13 +23266,13 @@
         <v>0</v>
       </c>
       <c r="E11" t="n">
-        <v>0</v>
+        <v>309.6883763712822</v>
       </c>
       <c r="F11" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G11" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>267.0243359415286</v>
@@ -23308,25 +23308,25 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>358.9907805655117</v>
       </c>
       <c r="W11" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
       </c>
       <c r="Y11" t="n">
-        <v>214.5478253185807</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="12">
@@ -23415,13 +23415,13 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
         <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>148.927050621371</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
@@ -23430,10 +23430,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I13" t="n">
         <v>0</v>
@@ -23466,13 +23466,13 @@
         <v>0</v>
       </c>
       <c r="S13" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T13" t="n">
-        <v>0</v>
+        <v>13.11437420552738</v>
       </c>
       <c r="U13" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V13" t="n">
         <v>0</v>
@@ -23494,7 +23494,7 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C14" t="n">
         <v>433.7610480884109</v>
@@ -23503,16 +23503,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="n">
-        <v>429.4369973932878</v>
+        <v>288.8087381701617</v>
       </c>
       <c r="F14" t="n">
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H14" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I14" t="n">
         <v>0</v>
@@ -23545,22 +23545,22 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T14" t="n">
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V14" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W14" t="n">
-        <v>246.0935756940919</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X14" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y14" t="n">
         <v>404.2032624633431</v>
@@ -23652,7 +23652,7 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>113.6820091741345</v>
+        <v>0</v>
       </c>
       <c r="C16" t="n">
         <v>0</v>
@@ -23667,13 +23667,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>62.46433369811443</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23703,13 +23703,13 @@
         <v>0</v>
       </c>
       <c r="S16" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T16" t="n">
-        <v>0</v>
+        <v>114.8692533779061</v>
       </c>
       <c r="U16" t="n">
-        <v>275.6027656317444</v>
+        <v>0</v>
       </c>
       <c r="V16" t="n">
         <v>0</v>
@@ -23721,7 +23721,7 @@
         <v>0</v>
       </c>
       <c r="Y16" t="n">
-        <v>225.1454739790328</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -23734,22 +23734,22 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C17" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D17" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E17" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F17" t="n">
-        <v>375.0829218623507</v>
+        <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>80.3353210851073</v>
       </c>
       <c r="H17" t="n">
-        <v>0</v>
+        <v>267.0243359415286</v>
       </c>
       <c r="I17" t="n">
         <v>0</v>
@@ -23788,19 +23788,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U17" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V17" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W17" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X17" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y17" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="18">
@@ -23892,10 +23892,10 @@
         <v>0</v>
       </c>
       <c r="C19" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D19" t="n">
-        <v>114.8692533779059</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
         <v>0</v>
@@ -23907,10 +23907,10 @@
         <v>163.0937685836068</v>
       </c>
       <c r="H19" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
-        <v>62.46433369811443</v>
+        <v>0</v>
       </c>
       <c r="J19" t="n">
         <v>0</v>
@@ -23958,7 +23958,7 @@
         <v>0</v>
       </c>
       <c r="Y19" t="n">
-        <v>0</v>
+        <v>137.5181126888902</v>
       </c>
     </row>
     <row r="20">
@@ -23980,7 +23980,7 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G20" t="n">
         <v>395.5076644073176</v>
@@ -24025,19 +24025,19 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V20" t="n">
-        <v>83.88014333065217</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W20" t="n">
-        <v>400.806900043077</v>
+        <v>264.7818241994573</v>
       </c>
       <c r="X20" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y20" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21">
@@ -24132,19 +24132,19 @@
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>114.8692533779059</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G22" t="n">
         <v>163.0937685836068</v>
       </c>
       <c r="H22" t="n">
-        <v>131.0206200144773</v>
+        <v>49.71295013483662</v>
       </c>
       <c r="I22" t="n">
         <v>62.46433369811443</v>
@@ -24177,7 +24177,7 @@
         <v>0</v>
       </c>
       <c r="S22" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T22" t="n">
         <v>0</v>
@@ -24205,25 +24205,25 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>422.0365747800587</v>
+        <v>0</v>
       </c>
       <c r="C23" t="n">
         <v>0</v>
       </c>
       <c r="D23" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E23" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F23" t="n">
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>0</v>
+        <v>395.5076644073176</v>
       </c>
       <c r="H23" t="n">
-        <v>0</v>
+        <v>157.4702889230268</v>
       </c>
       <c r="I23" t="n">
         <v>0</v>
@@ -24256,7 +24256,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>40.06170608735099</v>
+        <v>0</v>
       </c>
       <c r="T23" t="n">
         <v>209.6535390155789</v>
@@ -24271,10 +24271,10 @@
         <v>400.806900043077</v>
       </c>
       <c r="X23" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y23" t="n">
-        <v>49.04628934217243</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="24">
@@ -24369,7 +24369,7 @@
         <v>0</v>
       </c>
       <c r="D25" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E25" t="n">
         <v>0</v>
@@ -24414,10 +24414,10 @@
         <v>0</v>
       </c>
       <c r="S25" t="n">
-        <v>93.63231361822145</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T25" t="n">
-        <v>0</v>
+        <v>114.8692533779057</v>
       </c>
       <c r="U25" t="n">
         <v>0</v>
@@ -24442,25 +24442,25 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>0</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C26" t="n">
-        <v>433.7610480884109</v>
+        <v>0</v>
       </c>
       <c r="D26" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E26" t="n">
         <v>429.4369973932878</v>
       </c>
       <c r="F26" t="n">
-        <v>0</v>
+        <v>230.0869946507376</v>
       </c>
       <c r="G26" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H26" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I26" t="n">
         <v>0</v>
@@ -24496,22 +24496,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T26" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U26" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V26" t="n">
         <v>0</v>
       </c>
       <c r="W26" t="n">
-        <v>0</v>
+        <v>400.806900043077</v>
       </c>
       <c r="X26" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y26" t="n">
-        <v>391.0674808572641</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="27">
@@ -24600,13 +24600,13 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>189.9004325317972</v>
+        <v>0</v>
       </c>
       <c r="C28" t="n">
-        <v>77.97952950672604</v>
+        <v>0</v>
       </c>
       <c r="D28" t="n">
-        <v>0</v>
+        <v>114.8692533779059</v>
       </c>
       <c r="E28" t="n">
         <v>0</v>
@@ -24615,10 +24615,10 @@
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I28" t="n">
         <v>62.46433369811443</v>
@@ -24651,7 +24651,7 @@
         <v>0</v>
       </c>
       <c r="S28" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T28" t="n">
         <v>0</v>
@@ -24660,7 +24660,7 @@
         <v>0</v>
       </c>
       <c r="V28" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W28" t="n">
         <v>0</v>
@@ -24679,7 +24679,7 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>294.6492154448413</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C29" t="n">
         <v>0</v>
@@ -24688,13 +24688,13 @@
         <v>0</v>
       </c>
       <c r="E29" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F29" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G29" t="n">
-        <v>395.5076644073176</v>
+        <v>185.6400093156567</v>
       </c>
       <c r="H29" t="n">
         <v>267.0243359415286</v>
@@ -24739,16 +24739,16 @@
         <v>256.4799845637012</v>
       </c>
       <c r="V29" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W29" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X29" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y29" t="n">
-        <v>0</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="30">
@@ -24846,16 +24846,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="n">
-        <v>0</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F31" t="n">
-        <v>0</v>
+        <v>174.9399834978613</v>
       </c>
       <c r="G31" t="n">
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I31" t="n">
         <v>0</v>
@@ -24888,19 +24888,19 @@
         <v>0</v>
       </c>
       <c r="S31" t="n">
-        <v>0</v>
+        <v>140.4092215608039</v>
       </c>
       <c r="T31" t="n">
-        <v>239.8247518556274</v>
+        <v>0</v>
       </c>
       <c r="U31" t="n">
         <v>0</v>
       </c>
       <c r="V31" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>90.51954388101061</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -24922,7 +24922,7 @@
         <v>0</v>
       </c>
       <c r="D32" t="n">
-        <v>431.5506869772999</v>
+        <v>0</v>
       </c>
       <c r="E32" t="n">
         <v>0</v>
@@ -24931,7 +24931,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>387.4213631139868</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -24973,7 +24973,7 @@
         <v>209.6535390155789</v>
       </c>
       <c r="U32" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V32" t="n">
         <v>358.9907805655117</v>
@@ -24985,7 +24985,7 @@
         <v>414.9510387864824</v>
       </c>
       <c r="Y32" t="n">
-        <v>103.5939540363289</v>
+        <v>404.2032624633431</v>
       </c>
     </row>
     <row r="33">
@@ -25077,10 +25077,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D34" t="n">
-        <v>164.2192128704925</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -25089,7 +25089,7 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>113.7438090910202</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
         <v>131.0206200144773</v>
@@ -25128,7 +25128,7 @@
         <v>142.9822731108078</v>
       </c>
       <c r="T34" t="n">
-        <v>0</v>
+        <v>107.1269275599054</v>
       </c>
       <c r="U34" t="n">
         <v>0</v>
@@ -25156,22 +25156,22 @@
         <v>0</v>
       </c>
       <c r="C35" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D35" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E35" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F35" t="n">
-        <v>0</v>
+        <v>423.5887552948843</v>
       </c>
       <c r="G35" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H35" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I35" t="n">
         <v>0</v>
@@ -25207,22 +25207,22 @@
         <v>40.06170608735099</v>
       </c>
       <c r="T35" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U35" t="n">
         <v>256.4799845637012</v>
       </c>
       <c r="V35" t="n">
-        <v>358.9907805655117</v>
+        <v>182.377380320027</v>
       </c>
       <c r="W35" t="n">
         <v>400.806900043077</v>
       </c>
       <c r="X35" t="n">
-        <v>265.3352856806297</v>
+        <v>0</v>
       </c>
       <c r="Y35" t="n">
-        <v>404.2032624633431</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36">
@@ -25314,7 +25314,7 @@
         <v>0</v>
       </c>
       <c r="C37" t="n">
-        <v>0</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D37" t="n">
         <v>0</v>
@@ -25362,16 +25362,16 @@
         <v>0</v>
       </c>
       <c r="S37" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T37" t="n">
-        <v>0</v>
+        <v>107.1269275599059</v>
       </c>
       <c r="U37" t="n">
-        <v>136.8593420240461</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W37" t="n">
         <v>0</v>
@@ -25393,19 +25393,19 @@
         <v>422.0365747800587</v>
       </c>
       <c r="C38" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D38" t="n">
         <v>0</v>
       </c>
       <c r="E38" t="n">
-        <v>429.4369973932878</v>
+        <v>0</v>
       </c>
       <c r="F38" t="n">
         <v>423.5887552948843</v>
       </c>
       <c r="G38" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
         <v>0</v>
@@ -25447,16 +25447,16 @@
         <v>0</v>
       </c>
       <c r="U38" t="n">
-        <v>0</v>
+        <v>256.4799845637012</v>
       </c>
       <c r="V38" t="n">
-        <v>0</v>
+        <v>358.9907805655117</v>
       </c>
       <c r="W38" t="n">
-        <v>108.3391656426647</v>
+        <v>299.0030530121291</v>
       </c>
       <c r="X38" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y38" t="n">
         <v>404.2032624633431</v>
@@ -25563,7 +25563,7 @@
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>99.00273129754093</v>
       </c>
       <c r="H40" t="n">
         <v>0</v>
@@ -25599,16 +25599,16 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>90.51954388101073</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>239.8247518556274</v>
       </c>
       <c r="U40" t="n">
-        <v>0</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V40" t="n">
-        <v>284.0859530482738</v>
+        <v>0</v>
       </c>
       <c r="W40" t="n">
         <v>0</v>
@@ -25627,25 +25627,25 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>305.3969917679803</v>
+        <v>422.0365747800587</v>
       </c>
       <c r="C41" t="n">
-        <v>0</v>
+        <v>433.7610480884109</v>
       </c>
       <c r="D41" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E41" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F41" t="n">
         <v>0</v>
       </c>
       <c r="G41" t="n">
-        <v>395.5076644073176</v>
+        <v>0</v>
       </c>
       <c r="H41" t="n">
-        <v>267.0243359415286</v>
+        <v>0</v>
       </c>
       <c r="I41" t="n">
         <v>0</v>
@@ -25681,19 +25681,19 @@
         <v>0</v>
       </c>
       <c r="T41" t="n">
-        <v>209.6535390155789</v>
+        <v>0</v>
       </c>
       <c r="U41" t="n">
-        <v>256.4799845637012</v>
+        <v>0</v>
       </c>
       <c r="V41" t="n">
-        <v>358.9907805655117</v>
+        <v>0</v>
       </c>
       <c r="W41" t="n">
-        <v>400.806900043077</v>
+        <v>62.12385027915576</v>
       </c>
       <c r="X41" t="n">
-        <v>0</v>
+        <v>414.9510387864824</v>
       </c>
       <c r="Y41" t="n">
         <v>404.2032624633431</v>
@@ -25791,7 +25791,7 @@
         <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>164.2192128704925</v>
       </c>
       <c r="E43" t="n">
         <v>0</v>
@@ -25800,10 +25800,10 @@
         <v>0</v>
       </c>
       <c r="G43" t="n">
-        <v>163.0937685836068</v>
+        <v>112.1439365845604</v>
       </c>
       <c r="H43" t="n">
-        <v>131.0206200144773</v>
+        <v>0</v>
       </c>
       <c r="I43" t="n">
         <v>62.46433369811443</v>
@@ -25836,13 +25836,13 @@
         <v>0</v>
       </c>
       <c r="S43" t="n">
-        <v>142.9822731108078</v>
+        <v>0</v>
       </c>
       <c r="T43" t="n">
         <v>0</v>
       </c>
       <c r="U43" t="n">
-        <v>114.8692533779059</v>
+        <v>275.6027656317444</v>
       </c>
       <c r="V43" t="n">
         <v>0</v>
@@ -25870,10 +25870,10 @@
         <v>0</v>
       </c>
       <c r="D44" t="n">
-        <v>0</v>
+        <v>431.5506869772999</v>
       </c>
       <c r="E44" t="n">
-        <v>0</v>
+        <v>429.4369973932878</v>
       </c>
       <c r="F44" t="n">
         <v>0</v>
@@ -25915,10 +25915,10 @@
         <v>0</v>
       </c>
       <c r="S44" t="n">
-        <v>0</v>
+        <v>40.06170608735099</v>
       </c>
       <c r="T44" t="n">
-        <v>100.0994919970771</v>
+        <v>14.80804036869748</v>
       </c>
       <c r="U44" t="n">
         <v>256.4799845637012</v>
@@ -25927,10 +25927,10 @@
         <v>358.9907805655117</v>
       </c>
       <c r="W44" t="n">
-        <v>400.806900043077</v>
+        <v>0</v>
       </c>
       <c r="X44" t="n">
-        <v>414.9510387864824</v>
+        <v>0</v>
       </c>
       <c r="Y44" t="n">
         <v>404.2032624633431</v>
@@ -26022,25 +26022,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>0</v>
+        <v>13.1143742055277</v>
       </c>
       <c r="C46" t="n">
-        <v>170.8360944016073</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
         <v>164.2192128704925</v>
       </c>
       <c r="E46" t="n">
-        <v>168.0604237117701</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
-        <v>111.3145178010417</v>
+        <v>0</v>
       </c>
       <c r="G46" t="n">
-        <v>0</v>
+        <v>163.0937685836068</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>131.0206200144773</v>
       </c>
       <c r="I46" t="n">
         <v>0</v>
@@ -26073,7 +26073,7 @@
         <v>0</v>
       </c>
       <c r="S46" t="n">
-        <v>0</v>
+        <v>142.9822731108078</v>
       </c>
       <c r="T46" t="n">
         <v>0</v>
@@ -26125,7 +26125,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>584933.7342268716</v>
+        <v>584933.7342268712</v>
       </c>
     </row>
     <row r="3">
@@ -26149,7 +26149,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>363880.933885258</v>
+        <v>363880.9338852582</v>
       </c>
     </row>
     <row r="6">
@@ -26157,7 +26157,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>363880.9338852582</v>
+        <v>363880.933885258</v>
       </c>
     </row>
     <row r="7">
@@ -26173,7 +26173,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>363880.9338852581</v>
+        <v>363880.9338852582</v>
       </c>
     </row>
     <row r="9">
@@ -26189,7 +26189,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>363880.9338852582</v>
+        <v>363880.9338852581</v>
       </c>
     </row>
     <row r="11">
@@ -26197,7 +26197,7 @@
         <v>9</v>
       </c>
       <c r="B11" t="n">
-        <v>363880.9338852582</v>
+        <v>363880.933885258</v>
       </c>
     </row>
     <row r="12">
@@ -26205,7 +26205,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>363880.9338852581</v>
+        <v>363880.933885258</v>
       </c>
     </row>
     <row r="13">
@@ -26213,7 +26213,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>363880.9338852581</v>
+        <v>363880.933885258</v>
       </c>
     </row>
     <row r="14">
@@ -26221,7 +26221,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>363880.9338852582</v>
+        <v>363880.9338852581</v>
       </c>
     </row>
     <row r="15">
@@ -26237,7 +26237,7 @@
         <v>14</v>
       </c>
       <c r="B16" t="n">
-        <v>363880.9338852581</v>
+        <v>363880.9338852582</v>
       </c>
     </row>
   </sheetData>
@@ -26313,22 +26313,22 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>344884.0606555936</v>
+        <v>344884.0606555934</v>
       </c>
       <c r="C2" t="n">
-        <v>348495.7579287656</v>
+        <v>348495.7579287654</v>
       </c>
       <c r="D2" t="n">
         <v>348495.7579287654</v>
       </c>
       <c r="E2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910627</v>
       </c>
       <c r="F2" t="n">
         <v>204486.8426910626</v>
       </c>
       <c r="G2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="H2" t="n">
         <v>204486.8426910626</v>
@@ -26340,7 +26340,7 @@
         <v>204486.8426910626</v>
       </c>
       <c r="K2" t="n">
-        <v>204486.8426910626</v>
+        <v>204486.8426910625</v>
       </c>
       <c r="L2" t="n">
         <v>204486.8426910626</v>
@@ -26349,13 +26349,13 @@
         <v>204486.8426910626</v>
       </c>
       <c r="N2" t="n">
-        <v>204486.8426910627</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="O2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
       <c r="P2" t="n">
-        <v>204486.8426910625</v>
+        <v>204486.8426910626</v>
       </c>
     </row>
     <row r="3">
@@ -26365,10 +26365,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>25672.80150169035</v>
+        <v>25672.80150168909</v>
       </c>
       <c r="C3" t="n">
-        <v>18763.31828088662</v>
+        <v>18763.31828088784</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -26389,10 +26389,10 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>6103.578707183017</v>
+        <v>6103.578707182711</v>
       </c>
       <c r="K3" t="n">
-        <v>4629.330666749532</v>
+        <v>4629.330666749804</v>
       </c>
       <c r="L3" t="n">
         <v>0</v>
@@ -26417,37 +26417,37 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>296373.7481746556</v>
+        <v>296373.7481746557</v>
       </c>
       <c r="C4" t="n">
         <v>294577.6699288963</v>
       </c>
       <c r="D4" t="n">
-        <v>294577.6699288963</v>
+        <v>294577.6699288964</v>
       </c>
       <c r="E4" t="n">
+        <v>18294.04639895363</v>
+      </c>
+      <c r="F4" t="n">
+        <v>18294.04639895362</v>
+      </c>
+      <c r="G4" t="n">
+        <v>18294.04639895363</v>
+      </c>
+      <c r="H4" t="n">
+        <v>18294.04639895363</v>
+      </c>
+      <c r="I4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="F4" t="n">
-        <v>18294.04639895363</v>
-      </c>
-      <c r="G4" t="n">
+      <c r="J4" t="n">
         <v>18294.04639895361</v>
       </c>
-      <c r="H4" t="n">
-        <v>18294.04639895362</v>
-      </c>
-      <c r="I4" t="n">
-        <v>18294.04639895362</v>
-      </c>
-      <c r="J4" t="n">
-        <v>18294.04639895362</v>
-      </c>
       <c r="K4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="L4" t="n">
-        <v>18294.04639895362</v>
+        <v>18294.04639895361</v>
       </c>
       <c r="M4" t="n">
         <v>18294.04639895361</v>
@@ -26456,7 +26456,7 @@
         <v>18294.04639895361</v>
       </c>
       <c r="O4" t="n">
-        <v>18294.04639895361</v>
+        <v>18294.04639895362</v>
       </c>
       <c r="P4" t="n">
         <v>18294.04639895362</v>
@@ -26469,7 +26469,7 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>35449.86995413293</v>
+        <v>35449.86995413285</v>
       </c>
       <c r="C5" t="n">
         <v>36853.56981021012</v>
@@ -26478,10 +26478,10 @@
         <v>36853.56981021012</v>
       </c>
       <c r="E5" t="n">
+        <v>46051.08120963783</v>
+      </c>
+      <c r="F5" t="n">
         <v>46051.08120963781</v>
-      </c>
-      <c r="F5" t="n">
-        <v>46051.08120963782</v>
       </c>
       <c r="G5" t="n">
         <v>46051.08120963782</v>
@@ -26496,16 +26496,16 @@
         <v>46051.08120963782</v>
       </c>
       <c r="K5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="L5" t="n">
         <v>46051.08120963782</v>
       </c>
       <c r="M5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="N5" t="n">
-        <v>46051.08120963782</v>
+        <v>46051.08120963781</v>
       </c>
       <c r="O5" t="n">
         <v>46051.08120963782</v>
@@ -26521,49 +26521,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-12612.3589748853</v>
+        <v>-12626.25011824258</v>
       </c>
       <c r="C6" t="n">
-        <v>-1698.800091227495</v>
+        <v>-1698.800091228833</v>
       </c>
       <c r="D6" t="n">
-        <v>17064.51818965901</v>
+        <v>17064.5181896589</v>
       </c>
       <c r="E6" t="n">
-        <v>-372343.7944735106</v>
+        <v>-372897.6749167325</v>
       </c>
       <c r="F6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="G6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392491</v>
       </c>
       <c r="H6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="I6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="J6" t="n">
-        <v>134038.1363752882</v>
+        <v>133484.2559320665</v>
       </c>
       <c r="K6" t="n">
-        <v>135512.3844157216</v>
+        <v>134958.5039724993</v>
       </c>
       <c r="L6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="M6" t="n">
-        <v>3386.810699355701</v>
+        <v>2832.930256133832</v>
       </c>
       <c r="N6" t="n">
-        <v>140141.7150824712</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="O6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
       <c r="P6" t="n">
-        <v>140141.7150824711</v>
+        <v>139587.8346392492</v>
       </c>
     </row>
   </sheetData>
@@ -26737,7 +26737,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443739</v>
+        <v>18.52934677443647</v>
       </c>
       <c r="C3" t="n">
         <v>32.7531020605716</v>
@@ -26746,10 +26746,10 @@
         <v>32.7531020605716</v>
       </c>
       <c r="E3" t="n">
+        <v>466.7019280932212</v>
+      </c>
+      <c r="F3" t="n">
         <v>466.7019280932211</v>
-      </c>
-      <c r="F3" t="n">
-        <v>466.7019280932212</v>
       </c>
       <c r="G3" t="n">
         <v>466.7019280932212</v>
@@ -26789,19 +26789,19 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="C4" t="n">
         <v>41.31500304752735</v>
       </c>
       <c r="D4" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="E4" t="n">
+        <v>590.0818943619344</v>
+      </c>
+      <c r="F4" t="n">
         <v>590.0818943619341</v>
-      </c>
-      <c r="F4" t="n">
-        <v>590.0818943619342</v>
       </c>
       <c r="G4" t="n">
         <v>590.0818943619342</v>
@@ -26816,16 +26816,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="K4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="L4" t="n">
         <v>590.0818943619342</v>
       </c>
       <c r="M4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N4" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="O4" t="n">
         <v>590.0818943619342</v>
@@ -26959,10 +26959,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>18.52934677443739</v>
+        <v>18.52934677443647</v>
       </c>
       <c r="C3" t="n">
-        <v>14.22375528613421</v>
+        <v>14.22375528613513</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
@@ -27011,16 +27011,16 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="C4" t="n">
-        <v>17.98720379670173</v>
+        <v>17.9872037967029</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.766891314407</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27035,10 +27035,10 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670173</v>
+        <v>17.98720379670279</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
@@ -27257,16 +27257,16 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="K4" t="n">
-        <v>17.98720379670173</v>
+        <v>17.9872037967029</v>
       </c>
       <c r="L4" t="n">
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>548.7668913144068</v>
+        <v>548.766891314407</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27429,7 +27429,7 @@
         <v>0</v>
       </c>
       <c r="S2" t="n">
-        <v>81.11791793379034</v>
+        <v>81.11791793379042</v>
       </c>
       <c r="T2" t="n">
         <v>217.5404755973798</v>
@@ -27463,19 +27463,19 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D3" t="n">
-        <v>73.59226038478508</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E3" t="n">
         <v>93.17921052631581</v>
       </c>
       <c r="F3" t="n">
-        <v>59.22220074917438</v>
+        <v>82.55</v>
       </c>
       <c r="G3" t="n">
-        <v>61.16358400957147</v>
+        <v>84.49138326039709</v>
       </c>
       <c r="H3" t="n">
-        <v>17.60557545265883</v>
+        <v>40.93337470348447</v>
       </c>
       <c r="I3" t="n">
         <v>0</v>
@@ -27508,7 +27508,7 @@
         <v>0</v>
       </c>
       <c r="S3" t="n">
-        <v>62.0805833309145</v>
+        <v>62.08058333091454</v>
       </c>
       <c r="T3" t="n">
         <v>128.7162112922732</v>
@@ -27517,16 +27517,16 @@
         <v>174.5705594526576</v>
       </c>
       <c r="V3" t="n">
-        <v>197.1263427586206</v>
+        <v>176.5792171784945</v>
       </c>
       <c r="W3" t="n">
-        <v>183.4695267241379</v>
+        <v>160.1417274733135</v>
       </c>
       <c r="X3" t="n">
-        <v>153.3187614035088</v>
+        <v>129.9909621526843</v>
       </c>
       <c r="Y3" t="n">
-        <v>125.2209214285714</v>
+        <v>101.893122177747</v>
       </c>
     </row>
     <row r="4">
@@ -27548,16 +27548,16 @@
         <v>168.0604237117701</v>
       </c>
       <c r="F4" t="n">
-        <v>174.0941051117706</v>
+        <v>151.6121842470369</v>
       </c>
       <c r="G4" t="n">
-        <v>140.5741493974544</v>
+        <v>163.0560702621904</v>
       </c>
       <c r="H4" t="n">
-        <v>114.8782762477462</v>
+        <v>114.8782762477474</v>
       </c>
       <c r="I4" t="n">
-        <v>63.44071311946156</v>
+        <v>63.44071311946278</v>
       </c>
       <c r="J4" t="n">
         <v>0</v>
@@ -27694,7 +27694,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>83.02350065254669</v>
+        <v>120.0908620689655</v>
       </c>
       <c r="C6" t="n">
         <v>105.3918965517241</v>
@@ -27706,10 +27706,10 @@
         <v>93.17921052631581</v>
       </c>
       <c r="F6" t="n">
-        <v>41.23499695247265</v>
+        <v>82.55</v>
       </c>
       <c r="G6" t="n">
-        <v>43.14578572036749</v>
+        <v>84.46078876789484</v>
       </c>
       <c r="H6" t="n">
         <v>0</v>
@@ -27751,7 +27751,7 @@
         <v>128.5928940176698</v>
       </c>
       <c r="U6" t="n">
-        <v>174.5685466570983</v>
+        <v>137.5011852406794</v>
       </c>
       <c r="V6" t="n">
         <v>197.1263427586206</v>
@@ -27760,10 +27760,10 @@
         <v>183.4695267241379</v>
       </c>
       <c r="X6" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y6" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="7">
@@ -27776,13 +27776,13 @@
         <v>148.5854294842699</v>
       </c>
       <c r="C7" t="n">
-        <v>129.52109135408</v>
+        <v>170.8360944016073</v>
       </c>
       <c r="D7" t="n">
-        <v>164.2192128704925</v>
+        <v>122.9042098229652</v>
       </c>
       <c r="E7" t="n">
-        <v>168.0604237117701</v>
+        <v>126.7454206642428</v>
       </c>
       <c r="F7" t="n">
         <v>174.9399834978613</v>
@@ -27794,7 +27794,7 @@
         <v>137.9780290613614</v>
       </c>
       <c r="I7" t="n">
-        <v>85.99716511640959</v>
+        <v>68.15486756642629</v>
       </c>
       <c r="J7" t="n">
         <v>0</v>
@@ -27821,10 +27821,10 @@
         <v>0</v>
       </c>
       <c r="R7" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>120.2293938282603</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T7" t="n">
         <v>243.1682919906331</v>
@@ -27839,7 +27839,7 @@
         <v>269.3061403695714</v>
       </c>
       <c r="X7" t="n">
-        <v>201.6228340723943</v>
+        <v>242.9378371199217</v>
       </c>
       <c r="Y7" t="n">
         <v>225.1454739790328</v>
@@ -27937,13 +27937,13 @@
         <v>105.3918965517241</v>
       </c>
       <c r="D9" t="n">
-        <v>57.0720245484935</v>
+        <v>94.13938596491228</v>
       </c>
       <c r="E9" t="n">
-        <v>51.86420747878848</v>
+        <v>93.17921052631581</v>
       </c>
       <c r="F9" t="n">
-        <v>41.23499695247266</v>
+        <v>82.55</v>
       </c>
       <c r="G9" t="n">
         <v>84.46078876789484</v>
@@ -27994,13 +27994,13 @@
         <v>197.1263427586206</v>
       </c>
       <c r="W9" t="n">
-        <v>183.4695267241379</v>
+        <v>146.4021653077191</v>
       </c>
       <c r="X9" t="n">
-        <v>153.3187614035088</v>
+        <v>112.0037583559815</v>
       </c>
       <c r="Y9" t="n">
-        <v>125.2209214285714</v>
+        <v>83.90591838104407</v>
       </c>
     </row>
     <row r="10">
@@ -28010,16 +28010,16 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>189.9004325317972</v>
+        <v>148.5854294842699</v>
       </c>
       <c r="C10" t="n">
-        <v>129.52109135408</v>
+        <v>152.993796851624</v>
       </c>
       <c r="D10" t="n">
         <v>122.9042098229652</v>
       </c>
       <c r="E10" t="n">
-        <v>131.6701690275081</v>
+        <v>168.0604237117701</v>
       </c>
       <c r="F10" t="n">
         <v>174.9399834978613</v>
@@ -28028,7 +28028,7 @@
         <v>163.8762992535017</v>
       </c>
       <c r="H10" t="n">
-        <v>137.9780290613614</v>
+        <v>96.66302601383403</v>
       </c>
       <c r="I10" t="n">
         <v>85.99716511640959</v>
@@ -28058,10 +28058,10 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>18.54795713427877</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>115.304645464995</v>
+        <v>156.6196485125224</v>
       </c>
       <c r="T10" t="n">
         <v>243.1682919906331</v>
@@ -31041,49 +31041,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>0.07448983627914522</v>
+        <v>0.07448983627914152</v>
       </c>
       <c r="H2" t="n">
-        <v>0.7628690357937963</v>
+        <v>0.7628690357937582</v>
       </c>
       <c r="I2" t="n">
-        <v>2.871769413151749</v>
+        <v>2.871769413151606</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897108</v>
+        <v>6.322231741896792</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593328</v>
+        <v>9.475386511592855</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862122</v>
+        <v>11.75505483862063</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455047</v>
+        <v>13.07976346454982</v>
       </c>
       <c r="N2" t="n">
-        <v>13.29140771187859</v>
+        <v>13.29140771187793</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237784</v>
+        <v>12.55069940237721</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923644</v>
+        <v>10.71173156923591</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489549</v>
+        <v>8.044064307489149</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169861</v>
+        <v>4.679172178169627</v>
       </c>
       <c r="S2" t="n">
-        <v>1.697437144211024</v>
+        <v>1.697437144210939</v>
       </c>
       <c r="T2" t="n">
-        <v>0.3260792583119584</v>
+        <v>0.3260792583119421</v>
       </c>
       <c r="U2" t="n">
-        <v>0.005959186902331617</v>
+        <v>0.00595918690233132</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31120,49 +31120,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>0.03985557608086533</v>
+        <v>0.03985557608086334</v>
       </c>
       <c r="H3" t="n">
-        <v>0.3849209584651994</v>
+        <v>0.3849209584651802</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257863</v>
+        <v>1.372220492257795</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850527</v>
+        <v>3.76547791385034</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268504</v>
+        <v>6.435801511268183</v>
       </c>
       <c r="L3" t="n">
-        <v>8.65372935913701</v>
+        <v>8.653729359136578</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206838</v>
+        <v>10.09849399206787</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903172</v>
+        <v>10.36577107903121</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555709</v>
+        <v>9.482655419555234</v>
       </c>
       <c r="P3" t="n">
-        <v>7.610666979862784</v>
+        <v>7.610666979862405</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690809</v>
+        <v>5.087529325690556</v>
       </c>
       <c r="R3" t="n">
-        <v>2.47454182017864</v>
+        <v>2.474541820178516</v>
       </c>
       <c r="S3" t="n">
-        <v>0.740299845186248</v>
+        <v>0.7402998451862112</v>
       </c>
       <c r="T3" t="n">
-        <v>0.1606459404312071</v>
+        <v>0.1606459404311991</v>
       </c>
       <c r="U3" t="n">
-        <v>0.002622077373741141</v>
+        <v>0.00262207737374101</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31199,49 +31199,49 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>0.0334135761506248</v>
+        <v>0.03341357615062313</v>
       </c>
       <c r="H4" t="n">
-        <v>0.2970770679573734</v>
+        <v>0.2970770679573586</v>
       </c>
       <c r="I4" t="n">
-        <v>1.004837362784244</v>
+        <v>1.004837362784194</v>
       </c>
       <c r="J4" t="n">
-        <v>2.362339833849173</v>
+        <v>2.362339833849055</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136225</v>
+        <v>3.882050029136032</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248346</v>
+        <v>4.967687494248098</v>
       </c>
       <c r="M4" t="n">
-        <v>5.23772994150203</v>
+        <v>5.237729941501769</v>
       </c>
       <c r="N4" t="n">
-        <v>5.11318843039516</v>
+        <v>5.113188430394905</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999223</v>
+        <v>4.722857108998988</v>
       </c>
       <c r="P4" t="n">
-        <v>4.041220155526474</v>
+        <v>4.041220155526272</v>
       </c>
       <c r="Q4" t="n">
-        <v>2.797931362940046</v>
+        <v>2.797931362939906</v>
       </c>
       <c r="R4" t="n">
-        <v>1.502395887645366</v>
+        <v>1.502395887645291</v>
       </c>
       <c r="S4" t="n">
-        <v>0.5823075043704338</v>
+        <v>0.5823075043704047</v>
       </c>
       <c r="T4" t="n">
-        <v>0.1427670980981241</v>
+        <v>0.142767098098117</v>
       </c>
       <c r="U4" t="n">
-        <v>0.001822558699124991</v>
+        <v>0.0018225586991249</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31758,28 +31758,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I11" t="n">
-        <v>72.3317631469906</v>
+        <v>72.33176314699061</v>
       </c>
       <c r="J11" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K11" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O11" t="n">
-        <v>316.116681354841</v>
+        <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184535</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -31791,7 +31791,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T11" t="n">
-        <v>8.213015840112863</v>
+        <v>8.213015840112865</v>
       </c>
       <c r="U11" t="n">
         <v>0.1500950924520911</v>
@@ -31834,13 +31834,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H12" t="n">
-        <v>9.695072128879934</v>
+        <v>9.695072128879936</v>
       </c>
       <c r="I12" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562338</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K12" t="n">
         <v>162.0996687415861</v>
@@ -31852,25 +31852,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P12" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q12" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R12" t="n">
-        <v>62.32672164233623</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S12" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T12" t="n">
-        <v>4.046217659600661</v>
+        <v>4.046217659600662</v>
       </c>
       <c r="U12" t="n">
         <v>0.06604272567356906</v>
@@ -31910,10 +31910,10 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>0.8415936408238412</v>
+        <v>0.8415936408238414</v>
       </c>
       <c r="H13" t="n">
-        <v>7.482532552051976</v>
+        <v>7.482532552051977</v>
       </c>
       <c r="I13" t="n">
         <v>25.30901603495698</v>
@@ -31922,7 +31922,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L13" t="n">
         <v>125.1220218366646</v>
@@ -31946,10 +31946,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S13" t="n">
-        <v>14.66668190417548</v>
+        <v>14.66668190417549</v>
       </c>
       <c r="T13" t="n">
-        <v>3.595900101701866</v>
+        <v>3.595900101701867</v>
       </c>
       <c r="U13" t="n">
         <v>0.04590510768130049</v>
@@ -31995,28 +31995,28 @@
         <v>19.21451706968723</v>
       </c>
       <c r="I14" t="n">
-        <v>72.33176314699061</v>
+        <v>72.3317631469906</v>
       </c>
       <c r="J14" t="n">
         <v>159.239166912571</v>
       </c>
       <c r="K14" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062837</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O14" t="n">
-        <v>316.1166813548411</v>
+        <v>316.116681354841</v>
       </c>
       <c r="P14" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184535</v>
       </c>
       <c r="Q14" t="n">
         <v>202.6072676879471</v>
@@ -32028,7 +32028,7 @@
         <v>42.75364899065037</v>
       </c>
       <c r="T14" t="n">
-        <v>8.213015840112865</v>
+        <v>8.213015840112863</v>
       </c>
       <c r="U14" t="n">
         <v>0.1500950924520911</v>
@@ -32071,13 +32071,13 @@
         <v>1.003849430238249</v>
       </c>
       <c r="H15" t="n">
-        <v>9.695072128879936</v>
+        <v>9.695072128879934</v>
       </c>
       <c r="I15" t="n">
         <v>34.5623597691678</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562338</v>
       </c>
       <c r="K15" t="n">
         <v>162.0996687415861</v>
@@ -32089,25 +32089,25 @@
         <v>254.3525508108055</v>
       </c>
       <c r="N15" t="n">
-        <v>261.0845059811314</v>
+        <v>261.0845059811313</v>
       </c>
       <c r="O15" t="n">
         <v>238.8413159742733</v>
       </c>
       <c r="P15" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q15" t="n">
         <v>128.1404992002369</v>
       </c>
       <c r="R15" t="n">
-        <v>62.32672164233624</v>
+        <v>62.32672164233623</v>
       </c>
       <c r="S15" t="n">
         <v>18.64606288183764</v>
       </c>
       <c r="T15" t="n">
-        <v>4.046217659600662</v>
+        <v>4.046217659600661</v>
       </c>
       <c r="U15" t="n">
         <v>0.06604272567356906</v>
@@ -32147,10 +32147,10 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>0.8415936408238414</v>
+        <v>0.8415936408238412</v>
       </c>
       <c r="H16" t="n">
-        <v>7.482532552051977</v>
+        <v>7.482532552051976</v>
       </c>
       <c r="I16" t="n">
         <v>25.30901603495698</v>
@@ -32159,7 +32159,7 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K16" t="n">
-        <v>97.77787936116991</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L16" t="n">
         <v>125.1220218366646</v>
@@ -32183,10 +32183,10 @@
         <v>37.84111043195198</v>
       </c>
       <c r="S16" t="n">
-        <v>14.66668190417549</v>
+        <v>14.66668190417548</v>
       </c>
       <c r="T16" t="n">
-        <v>3.595900101701867</v>
+        <v>3.595900101701866</v>
       </c>
       <c r="U16" t="n">
         <v>0.04590510768130049</v>
@@ -32548,7 +32548,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I21" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J21" t="n">
         <v>94.84175691562339</v>
@@ -32785,7 +32785,7 @@
         <v>9.695072128879936</v>
       </c>
       <c r="I24" t="n">
-        <v>34.56235976916781</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J24" t="n">
         <v>94.84175691562339</v>
@@ -33043,7 +33043,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P27" t="n">
-        <v>191.6912126917232</v>
+        <v>191.6912126917233</v>
       </c>
       <c r="Q27" t="n">
         <v>128.1404992002369</v>
@@ -33262,7 +33262,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -33499,7 +33499,7 @@
         <v>34.5623597691678</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
@@ -33517,7 +33517,7 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P33" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
         <v>128.1404992002369</v>
@@ -33754,10 +33754,10 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
         <v>62.32672164233624</v>
@@ -33991,10 +33991,10 @@
         <v>238.8413159742733</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917233</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
         <v>62.32672164233624</v>
@@ -34231,7 +34231,7 @@
         <v>191.6912126917233</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
         <v>62.32672164233624</v>
@@ -34471,7 +34471,7 @@
         <v>128.1404992002369</v>
       </c>
       <c r="R45" t="n">
-        <v>62.32672164233622</v>
+        <v>62.32672164233624</v>
       </c>
       <c r="S45" t="n">
         <v>18.64606288183764</v>
@@ -34695,34 +34695,34 @@
         <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>2.459147934020351</v>
+        <v>2.459147934020208</v>
       </c>
       <c r="J2" t="n">
-        <v>6.322231741897108</v>
+        <v>6.322231741896792</v>
       </c>
       <c r="K2" t="n">
-        <v>9.475386511593319</v>
+        <v>9.475386511592855</v>
       </c>
       <c r="L2" t="n">
-        <v>11.75505483862122</v>
+        <v>11.75505483862063</v>
       </c>
       <c r="M2" t="n">
-        <v>13.07976346455047</v>
+        <v>13.07976346454982</v>
       </c>
       <c r="N2" t="n">
-        <v>13.2914077118786</v>
+        <v>13.29140771187793</v>
       </c>
       <c r="O2" t="n">
-        <v>12.55069940237784</v>
+        <v>12.55069940237721</v>
       </c>
       <c r="P2" t="n">
-        <v>10.71173156923643</v>
+        <v>10.71173156923591</v>
       </c>
       <c r="Q2" t="n">
-        <v>8.044064307489549</v>
+        <v>8.044064307489151</v>
       </c>
       <c r="R2" t="n">
-        <v>4.679172178169864</v>
+        <v>4.679172178169622</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34774,34 +34774,34 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>1.372220492257863</v>
+        <v>1.372220492257795</v>
       </c>
       <c r="J3" t="n">
-        <v>3.765477913850527</v>
+        <v>3.765477913850339</v>
       </c>
       <c r="K3" t="n">
-        <v>6.435801511268503</v>
+        <v>6.435801511268182</v>
       </c>
       <c r="L3" t="n">
-        <v>23.32779925082561</v>
+        <v>8.65372935913658</v>
       </c>
       <c r="M3" t="n">
-        <v>10.09849399206838</v>
+        <v>10.09849399206787</v>
       </c>
       <c r="N3" t="n">
-        <v>10.36577107903172</v>
+        <v>10.36577107903121</v>
       </c>
       <c r="O3" t="n">
-        <v>9.482655419555712</v>
+        <v>9.482655419555236</v>
       </c>
       <c r="P3" t="n">
-        <v>19.95836885510698</v>
+        <v>7.610666979862401</v>
       </c>
       <c r="Q3" t="n">
-        <v>5.087529325690809</v>
+        <v>11.25604366197608</v>
       </c>
       <c r="R3" t="n">
-        <v>2.474541820178644</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -34856,28 +34856,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>23.32779925082561</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="K4" t="n">
-        <v>3.882050029136224</v>
+        <v>21.63037802751121</v>
       </c>
       <c r="L4" t="n">
-        <v>4.967687494248345</v>
+        <v>4.967687494248096</v>
       </c>
       <c r="M4" t="n">
-        <v>5.237729941502032</v>
+        <v>5.237729941501769</v>
       </c>
       <c r="N4" t="n">
-        <v>5.113188430395162</v>
+        <v>5.113188430394906</v>
       </c>
       <c r="O4" t="n">
-        <v>4.722857108999222</v>
+        <v>4.722857108998987</v>
       </c>
       <c r="P4" t="n">
-        <v>21.78954815390254</v>
+        <v>4.041220155526275</v>
       </c>
       <c r="Q4" t="n">
-        <v>23.32779925082562</v>
+        <v>23.32779925082444</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34953,7 +34953,7 @@
         <v>22.18504210978143</v>
       </c>
       <c r="P5" t="n">
-        <v>18.93442017160913</v>
+        <v>18.93442017160915</v>
       </c>
       <c r="Q5" t="n">
         <v>14.21896100560221</v>
@@ -35032,13 +35032,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P6" t="n">
-        <v>13.45287318408647</v>
+        <v>29.21210246644672</v>
       </c>
       <c r="Q6" t="n">
-        <v>20.13331336509094</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="R6" t="n">
-        <v>41.31500304752734</v>
+        <v>4.37408408273069</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -35093,28 +35093,28 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>4.175752044673201</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K7" t="n">
-        <v>6.862043349739427</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L7" t="n">
-        <v>8.781052968829309</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="M7" t="n">
-        <v>9.258389161154689</v>
+        <v>10.17006588498498</v>
       </c>
       <c r="N7" t="n">
-        <v>41.31500304752735</v>
+        <v>9.038245360419694</v>
       </c>
       <c r="O7" t="n">
-        <v>41.31500304752736</v>
+        <v>8.348282472750299</v>
       </c>
       <c r="P7" t="n">
-        <v>41.31500304752734</v>
+        <v>7.143397865800722</v>
       </c>
       <c r="Q7" t="n">
-        <v>10.56847247070539</v>
+        <v>4.945718411146316</v>
       </c>
       <c r="R7" t="n">
         <v>0</v>
@@ -35175,7 +35175,7 @@
         <v>11.17539134075754</v>
       </c>
       <c r="K8" t="n">
-        <v>16.74901469844195</v>
+        <v>16.74901469844198</v>
       </c>
       <c r="L8" t="n">
         <v>20.77863378260766</v>
@@ -35187,10 +35187,10 @@
         <v>23.49434324994148</v>
       </c>
       <c r="O8" t="n">
-        <v>22.18504210978143</v>
+        <v>22.18504210978145</v>
       </c>
       <c r="P8" t="n">
-        <v>18.93442017160915</v>
+        <v>18.93442017160913</v>
       </c>
       <c r="Q8" t="n">
         <v>14.21896100560221</v>
@@ -35248,10 +35248,10 @@
         <v>0</v>
       </c>
       <c r="I9" t="n">
-        <v>28.75252608797635</v>
+        <v>2.425583501655538</v>
       </c>
       <c r="J9" t="n">
-        <v>6.655986523460122</v>
+        <v>6.655986523460121</v>
       </c>
       <c r="K9" t="n">
         <v>11.37614111852891</v>
@@ -35269,13 +35269,13 @@
         <v>16.76186346679083</v>
       </c>
       <c r="P9" t="n">
-        <v>13.45287318408649</v>
+        <v>13.45287318408647</v>
       </c>
       <c r="Q9" t="n">
-        <v>8.99288945632901</v>
+        <v>20.13331336509094</v>
       </c>
       <c r="R9" t="n">
-        <v>26.12848436996839</v>
+        <v>41.31500304752734</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35330,28 +35330,28 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>10.17006588498496</v>
+        <v>41.31500304752735</v>
       </c>
       <c r="K10" t="n">
-        <v>41.31500304752733</v>
+        <v>41.31500304752736</v>
       </c>
       <c r="L10" t="n">
-        <v>41.31500304752733</v>
+        <v>8.781052968829314</v>
       </c>
       <c r="M10" t="n">
-        <v>41.31500304752734</v>
+        <v>9.258389161154682</v>
       </c>
       <c r="N10" t="n">
-        <v>9.038245360419694</v>
+        <v>9.038245360419708</v>
       </c>
       <c r="O10" t="n">
-        <v>8.348282472750299</v>
+        <v>8.348282472750284</v>
       </c>
       <c r="P10" t="n">
         <v>7.143397865800722</v>
       </c>
       <c r="Q10" t="n">
-        <v>4.945718411146316</v>
+        <v>38.39134521367464</v>
       </c>
       <c r="R10" t="n">
         <v>0</v>
@@ -35406,19 +35406,19 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>71.91914166785919</v>
+        <v>71.91914166785921</v>
       </c>
       <c r="J11" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K11" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L11" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M11" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N11" t="n">
         <v>334.7730322994721</v>
@@ -35427,7 +35427,7 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P11" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184533</v>
       </c>
       <c r="Q11" t="n">
         <v>202.6072676879471</v>
@@ -35485,22 +35485,22 @@
         <v>0</v>
       </c>
       <c r="I12" t="n">
-        <v>34.56235976916779</v>
+        <v>34.5623597691678</v>
       </c>
       <c r="J12" t="n">
-        <v>94.84175691562351</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K12" t="n">
-        <v>162.0996687415862</v>
+        <v>162.099668741586</v>
       </c>
       <c r="L12" t="n">
-        <v>217.9630089646688</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M12" t="n">
         <v>254.3525508108055</v>
       </c>
       <c r="N12" t="n">
-        <v>261.0845059811313</v>
+        <v>261.0845059811314</v>
       </c>
       <c r="O12" t="n">
         <v>238.8413159742734</v>
@@ -35567,28 +35567,28 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K13" t="n">
-        <v>97.77787936116991</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L13" t="n">
-        <v>281.852445040951</v>
+        <v>125.1220218366645</v>
       </c>
       <c r="M13" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N13" t="n">
-        <v>575.5128433954892</v>
+        <v>304.504756003096</v>
       </c>
       <c r="O13" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P13" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q13" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R13" t="n">
         <v>16.63746735027015</v>
@@ -35643,19 +35643,19 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>71.91914166785921</v>
+        <v>71.91914166785919</v>
       </c>
       <c r="J14" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125709</v>
       </c>
       <c r="K14" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L14" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766675</v>
       </c>
       <c r="M14" t="n">
-        <v>329.4423112816032</v>
+        <v>329.442311281603</v>
       </c>
       <c r="N14" t="n">
         <v>334.7730322994721</v>
@@ -35722,16 +35722,16 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916793</v>
       </c>
       <c r="J15" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562336</v>
       </c>
       <c r="K15" t="n">
-        <v>162.0996687415861</v>
+        <v>162.0996687415862</v>
       </c>
       <c r="L15" t="n">
-        <v>217.963008964669</v>
+        <v>217.9630089646688</v>
       </c>
       <c r="M15" t="n">
         <v>254.3525508108055</v>
@@ -35804,7 +35804,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>146.9548978453263</v>
+        <v>146.9548978453262</v>
       </c>
       <c r="K16" t="n">
         <v>375.3116718572664</v>
@@ -35813,13 +35813,13 @@
         <v>547.556245844706</v>
       </c>
       <c r="M16" t="n">
-        <v>309.1157135712374</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N16" t="n">
         <v>128.7867795998884</v>
       </c>
       <c r="O16" t="n">
-        <v>118.9554357048098</v>
+        <v>296.1475206512696</v>
       </c>
       <c r="P16" t="n">
         <v>452.8039900485103</v>
@@ -36041,28 +36041,28 @@
         <v>0</v>
       </c>
       <c r="J19" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K19" t="n">
-        <v>375.3116718572665</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L19" t="n">
-        <v>125.1220218366645</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M19" t="n">
-        <v>590.0818943619341</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N19" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O19" t="n">
-        <v>422.0603989642948</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P19" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q19" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R19" t="n">
         <v>16.63746735027015</v>
@@ -36120,13 +36120,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J20" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K20" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L20" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M20" t="n">
         <v>329.4423112816032</v>
@@ -36278,28 +36278,28 @@
         <v>0</v>
       </c>
       <c r="J22" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K22" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L22" t="n">
-        <v>281.8524450409517</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M22" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N22" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O22" t="n">
-        <v>542.8637682561041</v>
+        <v>296.14752065127</v>
       </c>
       <c r="P22" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q22" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R22" t="n">
         <v>16.63746735027015</v>
@@ -36357,10 +36357,10 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J23" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K23" t="n">
-        <v>238.6582327062837</v>
+        <v>238.6582327062838</v>
       </c>
       <c r="L23" t="n">
         <v>296.0766412766674</v>
@@ -36375,13 +36375,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P23" t="n">
-        <v>269.7982739184536</v>
+        <v>269.7982739184538</v>
       </c>
       <c r="Q23" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R23" t="n">
-        <v>117.855135640546</v>
+        <v>117.8551356405455</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36521,19 +36521,19 @@
         <v>97.77787936116989</v>
       </c>
       <c r="L25" t="n">
-        <v>281.8524450409517</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M25" t="n">
-        <v>590.0818943619342</v>
+        <v>395.7952529497143</v>
       </c>
       <c r="N25" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O25" t="n">
-        <v>542.8637682561041</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P25" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q25" t="n">
         <v>70.4719911420766</v>
@@ -36597,25 +36597,25 @@
         <v>159.239166912571</v>
       </c>
       <c r="K26" t="n">
-        <v>238.6582327062838</v>
+        <v>238.6582327062841</v>
       </c>
       <c r="L26" t="n">
         <v>296.0766412766674</v>
       </c>
       <c r="M26" t="n">
-        <v>329.4423112816032</v>
+        <v>329.4423112816033</v>
       </c>
       <c r="N26" t="n">
         <v>334.7730322994721</v>
       </c>
       <c r="O26" t="n">
-        <v>316.1166813548411</v>
+        <v>316.1166813548409</v>
       </c>
       <c r="P26" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q26" t="n">
-        <v>202.6072676879476</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R26" t="n">
         <v>117.855135640546</v>
@@ -36752,28 +36752,28 @@
         <v>0</v>
       </c>
       <c r="J28" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K28" t="n">
-        <v>375.3116718572664</v>
+        <v>97.77787936116989</v>
       </c>
       <c r="L28" t="n">
-        <v>170.8810658749154</v>
+        <v>388.9936461616016</v>
       </c>
       <c r="M28" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247773</v>
       </c>
       <c r="N28" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O28" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P28" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q28" t="n">
-        <v>240.36368292423</v>
+        <v>70.4719911420766</v>
       </c>
       <c r="R28" t="n">
         <v>16.63746735027015</v>
@@ -36837,7 +36837,7 @@
         <v>238.6582327062838</v>
       </c>
       <c r="L29" t="n">
-        <v>296.0766412766673</v>
+        <v>296.0766412766674</v>
       </c>
       <c r="M29" t="n">
         <v>329.4423112816032</v>
@@ -36907,10 +36907,10 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>34.56235976916781</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J30" t="n">
-        <v>94.84175691562339</v>
+        <v>94.84175691562342</v>
       </c>
       <c r="K30" t="n">
         <v>162.0996687415861</v>
@@ -36989,28 +36989,28 @@
         <v>0</v>
       </c>
       <c r="J31" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K31" t="n">
         <v>375.3116718572664</v>
       </c>
       <c r="L31" t="n">
-        <v>170.881065874915</v>
+        <v>547.5562458447059</v>
       </c>
       <c r="M31" t="n">
-        <v>590.0818943619342</v>
+        <v>131.9236286247772</v>
       </c>
       <c r="N31" t="n">
-        <v>575.512843395489</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O31" t="n">
-        <v>118.9554357048098</v>
+        <v>542.8637682561043</v>
       </c>
       <c r="P31" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485105</v>
       </c>
       <c r="Q31" t="n">
-        <v>240.3636829242305</v>
+        <v>81.10166275847587</v>
       </c>
       <c r="R31" t="n">
         <v>16.63746735027015</v>
@@ -37086,13 +37086,13 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P32" t="n">
-        <v>269.7982739184533</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q32" t="n">
         <v>202.6072676879471</v>
       </c>
       <c r="R32" t="n">
-        <v>117.8551356405465</v>
+        <v>117.855135640546</v>
       </c>
       <c r="S32" t="n">
         <v>0</v>
@@ -37144,16 +37144,16 @@
         <v>0</v>
       </c>
       <c r="I33" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J33" t="n">
-        <v>94.84175691562291</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K33" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L33" t="n">
-        <v>217.9630089646691</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M33" t="n">
         <v>254.3525508108055</v>
@@ -37168,10 +37168,10 @@
         <v>191.6912126917232</v>
       </c>
       <c r="Q33" t="n">
-        <v>128.1404992002367</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R33" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37235,16 +37235,16 @@
         <v>547.5562458447062</v>
       </c>
       <c r="M34" t="n">
-        <v>131.9236286247772</v>
+        <v>590.0818943619342</v>
       </c>
       <c r="N34" t="n">
-        <v>575.512843395489</v>
+        <v>309.8090425917344</v>
       </c>
       <c r="O34" t="n">
         <v>542.8637682561043</v>
       </c>
       <c r="P34" t="n">
-        <v>294.241390365406</v>
+        <v>101.7869254320035</v>
       </c>
       <c r="Q34" t="n">
         <v>70.4719911420766</v>
@@ -37314,10 +37314,10 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M35" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N35" t="n">
-        <v>334.7730322994723</v>
+        <v>334.7730322994721</v>
       </c>
       <c r="O35" t="n">
         <v>316.1166813548411</v>
@@ -37326,7 +37326,7 @@
         <v>269.7982739184536</v>
       </c>
       <c r="Q35" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R35" t="n">
         <v>117.855135640546</v>
@@ -37381,16 +37381,16 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J36" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K36" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L36" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M36" t="n">
         <v>254.3525508108055</v>
@@ -37402,13 +37402,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P36" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q36" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R36" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S36" t="n">
         <v>0</v>
@@ -37463,16 +37463,16 @@
         <v>0</v>
       </c>
       <c r="J37" t="n">
-        <v>146.9548978453263</v>
+        <v>59.50067040624558</v>
       </c>
       <c r="K37" t="n">
-        <v>167.0540751263759</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L37" t="n">
-        <v>125.1220218366646</v>
+        <v>281.852445040951</v>
       </c>
       <c r="M37" t="n">
-        <v>590.0818943619342</v>
+        <v>590.0818943619341</v>
       </c>
       <c r="N37" t="n">
         <v>575.5128433954892</v>
@@ -37618,16 +37618,16 @@
         <v>0</v>
       </c>
       <c r="I39" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916779</v>
       </c>
       <c r="J39" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K39" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L39" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M39" t="n">
         <v>254.3525508108055</v>
@@ -37639,13 +37639,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P39" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q39" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R39" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37703,16 +37703,16 @@
         <v>59.50067040624558</v>
       </c>
       <c r="K40" t="n">
-        <v>97.77787936116989</v>
+        <v>97.77787936116991</v>
       </c>
       <c r="L40" t="n">
-        <v>281.8524450409515</v>
+        <v>125.1220218366646</v>
       </c>
       <c r="M40" t="n">
-        <v>590.0818943619342</v>
+        <v>576.9206257840672</v>
       </c>
       <c r="N40" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954891</v>
       </c>
       <c r="O40" t="n">
         <v>542.8637682561043</v>
@@ -37721,7 +37721,7 @@
         <v>101.7869254320035</v>
       </c>
       <c r="Q40" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R40" t="n">
         <v>16.63746735027015</v>
@@ -37779,7 +37779,7 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J41" t="n">
-        <v>159.2391669125709</v>
+        <v>159.239166912571</v>
       </c>
       <c r="K41" t="n">
         <v>238.6582327062838</v>
@@ -37788,7 +37788,7 @@
         <v>296.0766412766674</v>
       </c>
       <c r="M41" t="n">
-        <v>329.4423112816033</v>
+        <v>329.4423112816032</v>
       </c>
       <c r="N41" t="n">
         <v>334.7730322994721</v>
@@ -37855,16 +37855,16 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>34.56235976916776</v>
+        <v>34.56235976916781</v>
       </c>
       <c r="J42" t="n">
-        <v>94.84175691562336</v>
+        <v>94.84175691562339</v>
       </c>
       <c r="K42" t="n">
         <v>162.0996687415861</v>
       </c>
       <c r="L42" t="n">
-        <v>217.9630089646689</v>
+        <v>217.963008964669</v>
       </c>
       <c r="M42" t="n">
         <v>254.3525508108055</v>
@@ -37876,13 +37876,13 @@
         <v>238.8413159742734</v>
       </c>
       <c r="P42" t="n">
-        <v>191.6912126917234</v>
+        <v>191.6912126917232</v>
       </c>
       <c r="Q42" t="n">
-        <v>128.1404992002363</v>
+        <v>128.1404992002369</v>
       </c>
       <c r="R42" t="n">
-        <v>62.32672164233645</v>
+        <v>62.32672164233622</v>
       </c>
       <c r="S42" t="n">
         <v>0</v>
@@ -37937,28 +37937,28 @@
         <v>0</v>
       </c>
       <c r="J43" t="n">
-        <v>59.50067040624558</v>
+        <v>146.9548978453263</v>
       </c>
       <c r="K43" t="n">
-        <v>97.77787936116989</v>
+        <v>375.3116718572664</v>
       </c>
       <c r="L43" t="n">
-        <v>281.8524450409513</v>
+        <v>547.556245844706</v>
       </c>
       <c r="M43" t="n">
-        <v>590.0818943619342</v>
+        <v>309.1157135712374</v>
       </c>
       <c r="N43" t="n">
-        <v>575.5128433954892</v>
+        <v>128.7867795998884</v>
       </c>
       <c r="O43" t="n">
-        <v>542.8637682561043</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P43" t="n">
-        <v>101.7869254320035</v>
+        <v>452.8039900485103</v>
       </c>
       <c r="Q43" t="n">
-        <v>70.4719911420766</v>
+        <v>240.36368292423</v>
       </c>
       <c r="R43" t="n">
         <v>16.63746735027015</v>
@@ -38016,13 +38016,13 @@
         <v>71.91914166785921</v>
       </c>
       <c r="J44" t="n">
-        <v>159.239166912571</v>
+        <v>159.2391669125714</v>
       </c>
       <c r="K44" t="n">
         <v>238.6582327062838</v>
       </c>
       <c r="L44" t="n">
-        <v>296.0766412766674</v>
+        <v>296.0766412766673</v>
       </c>
       <c r="M44" t="n">
         <v>329.4423112816032</v>
@@ -38034,10 +38034,10 @@
         <v>316.1166813548411</v>
       </c>
       <c r="P44" t="n">
-        <v>269.7982739184538</v>
+        <v>269.7982739184536</v>
       </c>
       <c r="Q44" t="n">
-        <v>202.6072676879467</v>
+        <v>202.6072676879471</v>
       </c>
       <c r="R44" t="n">
         <v>117.855135640546</v>
@@ -38186,16 +38186,16 @@
         <v>590.0818943619342</v>
       </c>
       <c r="N46" t="n">
-        <v>575.512843395489</v>
+        <v>575.5128433954892</v>
       </c>
       <c r="O46" t="n">
-        <v>277.1599674523497</v>
+        <v>118.9554357048098</v>
       </c>
       <c r="P46" t="n">
-        <v>101.7869254320035</v>
+        <v>101.7869254320033</v>
       </c>
       <c r="Q46" t="n">
-        <v>70.4719911420766</v>
+        <v>228.6765228896165</v>
       </c>
       <c r="R46" t="n">
         <v>16.63746735027015</v>
